--- a/result/day/day_return.xlsx
+++ b/result/day/day_return.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F248"/>
+  <dimension ref="A1:J248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,32 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>2609</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2610</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2612</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>2642</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>5607</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Y9999</t>
         </is>
       </c>
     </row>
@@ -469,6 +489,10 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -484,10 +508,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>-0.00153727931888703</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.01300408442320666</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.02214112587721351</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.01556451654111157</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>-0.009871748479154174</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.003026539378680582</v>
       </c>
     </row>
     <row r="4">
@@ -504,10 +540,22 @@
         <v>-0.001313197824960533</v>
       </c>
       <c r="E4" t="n">
+        <v>0.03477296675504515</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.005249355886144169</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1017042044547156</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.005774799493884153</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>0.005934735519814716</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.0009454854826440595</v>
       </c>
     </row>
     <row r="5">
@@ -524,10 +572,22 @@
         <v>0.003934431304834618</v>
       </c>
       <c r="E5" t="n">
+        <v>0.01034746852542501</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01566611674439944</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.01997846693088645</v>
+      </c>
+      <c r="H5" t="n">
         <v>-0.01158314108963099</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>0.003937012959339459</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01193206323511475</v>
       </c>
     </row>
     <row r="6">
@@ -544,10 +604,22 @@
         <v>-0.01052641298698731</v>
       </c>
       <c r="E6" t="n">
+        <v>-0.0344087796855419</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.02891134349441993</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.09519807846459649</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.02682153119456299</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>-0.01584191546565794</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.01454414363833223</v>
       </c>
     </row>
     <row r="7">
@@ -564,10 +636,22 @@
         <v>0.01183445764700286</v>
       </c>
       <c r="E7" t="n">
+        <v>-0.02777956410707638</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.03252319170556017</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.07155030486638836</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.01314572921250301</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>0.001994018606864323</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.004532399361234951</v>
       </c>
     </row>
     <row r="8">
@@ -584,10 +668,22 @@
         <v>-0.01183445764700286</v>
       </c>
       <c r="E8" t="n">
+        <v>0.006240269860085412</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04049136135473708</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.01199214904526391</v>
+      </c>
+      <c r="H8" t="n">
         <v>-0.0775582343458745</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>0.01384789685879362</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01841025170312527</v>
       </c>
     </row>
     <row r="9">
@@ -604,10 +700,22 @@
         <v>0.002642009462838768</v>
       </c>
       <c r="E9" t="n">
+        <v>0.01543240503881105</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02094317384524302</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.04200092397463084</v>
+      </c>
+      <c r="H9" t="n">
         <v>-0.02863181267432724</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>0.007827828620246891</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.006576256519480239</v>
       </c>
     </row>
     <row r="10">
@@ -624,10 +732,22 @@
         <v>0.003949972219313924</v>
       </c>
       <c r="E10" t="n">
+        <v>-0.03903696280823254</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0154244703256321</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.05821749556387568</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.009292787575459371</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>0.009699397088713368</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01405089228001444</v>
       </c>
     </row>
     <row r="11">
@@ -644,10 +764,22 @@
         <v>-0.002631580466055716</v>
       </c>
       <c r="E11" t="n">
+        <v>-0.01282068842906092</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.01801850550267847</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.02762606627493147</v>
+      </c>
+      <c r="H11" t="n">
         <v>-0.03450420692195566</v>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
         <v>0.001928640906405654</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.000354895199373928</v>
       </c>
     </row>
     <row r="12">
@@ -664,10 +796,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
+        <v>0.01916991610772012</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.007822725681208897</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.01941808585710181</v>
+      </c>
+      <c r="H12" t="n">
         <v>-0.007474674416705795</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
         <v>-0.003861008657459308</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.01479062118125007</v>
       </c>
     </row>
     <row r="13">
@@ -684,10 +828,22 @@
         <v>0.001316655884746609</v>
       </c>
       <c r="E13" t="n">
+        <v>-0.02240093668916643</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.01041676085825527</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.008275909303860018</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.00321027563024856</v>
       </c>
-      <c r="F13" t="n">
+      <c r="I13" t="n">
         <v>-0.009718249468921414</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.006152640519573538</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +860,22 @@
         <v>0.00262812240626964</v>
       </c>
       <c r="E14" t="n">
+        <v>0.01605170901050723</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.01797224240443063</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.008275909303860018</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.007450806155865131</v>
       </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
         <v>0.0155041865359653</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.006333327443361014</v>
       </c>
     </row>
     <row r="15">
@@ -724,10 +892,22 @@
         <v>-0.01587334915629013</v>
       </c>
       <c r="E15" t="n">
+        <v>-0.02908120930084124</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.01797224240443063</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.02362861839344532</v>
+      </c>
+      <c r="H15" t="n">
         <v>-0.02469261259037125</v>
       </c>
-      <c r="F15" t="n">
+      <c r="I15" t="n">
         <v>0.007662872745568983</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.01041690683134355</v>
       </c>
     </row>
     <row r="16">
@@ -744,10 +924,22 @@
         <v>-0.004008021397538641</v>
       </c>
       <c r="E16" t="n">
+        <v>-0.001640689457460098</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.01403153080425756</v>
       </c>
-      <c r="F16" t="n">
+      <c r="I16" t="n">
         <v>-0.003824096438403313</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.005274992057209715</v>
       </c>
     </row>
     <row r="17">
@@ -764,10 +956,22 @@
         <v>-0.005369140415058204</v>
       </c>
       <c r="E17" t="n">
+        <v>0.0130507561954909</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.01830116438240426</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.01257878220686015</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.0170035977625842</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.006735293722805125</v>
       </c>
     </row>
     <row r="18">
@@ -784,10 +988,22 @@
         <v>0.01469632329019666</v>
       </c>
       <c r="E18" t="n">
+        <v>0.03346925943940171</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.002642009462838768</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.04348511193973881</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.006302541870802258</v>
       </c>
-      <c r="F18" t="n">
+      <c r="I18" t="n">
         <v>0.02459915901336762</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.01695518378630112</v>
       </c>
     </row>
     <row r="19">
@@ -804,10 +1020,22 @@
         <v>-0.007989390033478649</v>
       </c>
       <c r="E19" t="n">
+        <v>0.01555241300748467</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.05436120921888765</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>-0.02545206320366322</v>
       </c>
-      <c r="F19" t="n">
+      <c r="I19" t="n">
         <v>-0.007504725654067457</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.0006717544863175107</v>
       </c>
     </row>
     <row r="20">
@@ -824,10 +1052,22 @@
         <v>0.004002673789657241</v>
       </c>
       <c r="E20" t="n">
+        <v>0.009216655104924421</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.005571045049455492</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.003997340432620344</v>
+      </c>
+      <c r="H20" t="n">
         <v>-0.007547205635382692</v>
       </c>
-      <c r="F20" t="n">
+      <c r="I20" t="n">
         <v>0.02602377342130513</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.002809548972061648</v>
       </c>
     </row>
     <row r="21">
@@ -844,10 +1084,22 @@
         <v>-0.005340466631317042</v>
       </c>
       <c r="E21" t="n">
+        <v>0.0106464883944879</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.005540180375615655</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.01344106256901734</v>
+      </c>
+      <c r="H21" t="n">
         <v>-0.007604599385219402</v>
       </c>
-      <c r="F21" t="n">
+      <c r="I21" t="n">
         <v>0.009132483563272675</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.008915383541483024</v>
       </c>
     </row>
     <row r="22">
@@ -864,10 +1116,22 @@
         <v>-0.005369140415058204</v>
       </c>
       <c r="E22" t="n">
+        <v>-0.01524419764311702</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.002758622439079428</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.001352265250013307</v>
+      </c>
+      <c r="H22" t="n">
         <v>-0.01649295219384106</v>
       </c>
-      <c r="F22" t="n">
+      <c r="I22" t="n">
         <v>0.01444068415479371</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.01148472584581128</v>
       </c>
     </row>
     <row r="23">
@@ -884,10 +1148,22 @@
         <v>-0.004045858519543977</v>
       </c>
       <c r="E23" t="n">
+        <v>-0.02488464331587803</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.05085841723349072</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.0204785313435405</v>
+      </c>
+      <c r="H23" t="n">
         <v>-0.01564277707045347</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
         <v>-0.01081091610421492</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.01044001403519346</v>
       </c>
     </row>
     <row r="24">
@@ -904,10 +1180,22 @@
         <v>0.005390848634876821</v>
       </c>
       <c r="E24" t="n">
+        <v>0.02180771781139867</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.005780362915499548</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.004129393342011234</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.004494389587839098</v>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
         <v>0.009017193650188382</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.01511105139904956</v>
       </c>
     </row>
     <row r="25">
@@ -924,10 +1212,22 @@
         <v>-0.005390848634876821</v>
       </c>
       <c r="E25" t="n">
+        <v>-0.00463321292148855</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.0152252075970658</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.00892863074430128</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0003714163691181938</v>
       </c>
     </row>
     <row r="26">
@@ -944,10 +1244,22 @@
         <v>-0.005420067469338985</v>
       </c>
       <c r="E26" t="n">
+        <v>-0.03304785404619981</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.008683122573461155</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.02399550555621577</v>
+      </c>
+      <c r="H26" t="n">
         <v>-0.01117330059812494</v>
       </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
         <v>-0.01446679841775378</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.01193922568394079</v>
       </c>
     </row>
     <row r="27">
@@ -964,10 +1276,22 @@
         <v>-0.008185584586439365</v>
       </c>
       <c r="E27" t="n">
+        <v>-0.01288262583101396</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.0146415499929482</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.01583906402974566</v>
+      </c>
+      <c r="H27" t="n">
         <v>-0.02157948587368308</v>
       </c>
-      <c r="F27" t="n">
+      <c r="I27" t="n">
         <v>-0.003649639087549339</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.004551521815697512</v>
       </c>
     </row>
     <row r="28">
@@ -984,10 +1308,22 @@
         <v>-0.005494519317641</v>
       </c>
       <c r="E28" t="n">
+        <v>-0.004874095758245822</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.00434468460401094</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.005724114083888843</v>
       </c>
-      <c r="F28" t="n">
+      <c r="I28" t="n">
         <v>-0.007339482488045501</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.006402568265180264</v>
       </c>
     </row>
     <row r="29">
@@ -1004,10 +1340,22 @@
         <v>-0.002758622439079428</v>
       </c>
       <c r="E29" t="n">
+        <v>0.02572489123843624</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0146415499929482</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01434744840814117</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.006825965070399675</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
         <v>0.009165967014080234</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.003840529021177375</v>
       </c>
     </row>
     <row r="30">
@@ -1024,10 +1372,22 @@
         <v>0.001380262468958282</v>
       </c>
       <c r="E30" t="n">
+        <v>0.02817087696669596</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.005797117684326114</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01694955831377332</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.01797801229540852</v>
       </c>
-      <c r="F30" t="n">
+      <c r="I30" t="n">
         <v>0.01628995297926839</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.002082629603364694</v>
       </c>
     </row>
     <row r="31">
@@ -1044,10 +1404,22 @@
         <v>0.001378359970121146</v>
       </c>
       <c r="E31" t="n">
+        <v>-0.003091192569672607</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.002886004889135041</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.007027435807456683</v>
+      </c>
+      <c r="H31" t="n">
         <v>-0.0111983253100294</v>
       </c>
-      <c r="F31" t="n">
+      <c r="I31" t="n">
         <v>-0.01264696170076718</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0001458418897648528</v>
       </c>
     </row>
     <row r="32">
@@ -1064,10 +1436,22 @@
         <v>0.01910017137341935</v>
       </c>
       <c r="E32" t="n">
+        <v>0.01077762549382921</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.01997213318691493</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.007027435807456683</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.01342302033214038</v>
       </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
         <v>0.01085001602406521</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0006161535572513088</v>
       </c>
     </row>
     <row r="33">
@@ -1084,10 +1468,22 @@
         <v>0.01075279177626198</v>
       </c>
       <c r="E33" t="n">
+        <v>0.01368842666057724</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.001401541925288186</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.02523447117854172</v>
       </c>
-      <c r="F33" t="n">
+      <c r="I33" t="n">
         <v>0.01782578395260082</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0.02586455829085743</v>
       </c>
     </row>
     <row r="34">
@@ -1104,10 +1500,22 @@
         <v>-0.01345915337400472</v>
       </c>
       <c r="E34" t="n">
+        <v>-0.01522099401035515</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.02285813807604997</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.02269600965377228</v>
+      </c>
+      <c r="H34" t="n">
         <v>-0.01638485590155891</v>
       </c>
-      <c r="F34" t="n">
+      <c r="I34" t="n">
         <v>-0.06571707165701524</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.01187561104748625</v>
       </c>
     </row>
     <row r="35">
@@ -1124,10 +1532,22 @@
         <v>-0.01227009259181422</v>
       </c>
       <c r="E35" t="n">
+        <v>-0.01389983768903313</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.002894358026364507</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.0159077830346388</v>
+      </c>
+      <c r="H35" t="n">
         <v>-0.02565673359336396</v>
       </c>
-      <c r="F35" t="n">
+      <c r="I35" t="n">
         <v>-0.01520941866352876</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-0.03662901868390378</v>
       </c>
     </row>
     <row r="36">
@@ -1144,10 +1564,22 @@
         <v>0.01362418893954365</v>
       </c>
       <c r="E36" t="n">
+        <v>0.003105592558152459</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.02575249610241448</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.008784829555732454</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.02785695450296632</v>
       </c>
-      <c r="F36" t="n">
+      <c r="I36" t="n">
         <v>0.01897590145900541</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.009951240023807983</v>
       </c>
     </row>
     <row r="37">
@@ -1164,10 +1596,22 @@
         <v>-0.008152219061550614</v>
       </c>
       <c r="E37" t="n">
+        <v>-0.01720136235854675</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.005665737535677007</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>-0.01327453120869615</v>
       </c>
-      <c r="F37" t="n">
+      <c r="I37" t="n">
         <v>0.01307208156735262</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-0.02157082470190375</v>
       </c>
     </row>
     <row r="38">
@@ -1184,10 +1628,22 @@
         <v>-0.002732242136873175</v>
       </c>
       <c r="E38" t="n">
+        <v>-0.01750243564977261</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.01719240054037297</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.01034746852542501</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.006659292089977065</v>
       </c>
-      <c r="F38" t="n">
+      <c r="I38" t="n">
         <v>-0.02631730831737311</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.009335637618308468</v>
       </c>
     </row>
     <row r="39">
@@ -1204,10 +1660,22 @@
         <v>-0.01238832085695218</v>
       </c>
       <c r="E39" t="n">
+        <v>-0.01781423627512702</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.02285813807604997</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.05027715329101001</v>
+      </c>
+      <c r="H39" t="n">
         <v>-0.02690745291992469</v>
       </c>
-      <c r="F39" t="n">
+      <c r="I39" t="n">
         <v>0.009478743954543845</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.01501107787675338</v>
       </c>
     </row>
     <row r="40">
@@ -1224,10 +1692,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>-0.0164748372035044</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.05516638130870799</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.01574835696813937</v>
+      </c>
+      <c r="H40" t="n">
         <v>-0.009132483563272231</v>
       </c>
-      <c r="F40" t="n">
+      <c r="I40" t="n">
         <v>-0.02290176428668467</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.003083808387840392</v>
       </c>
     </row>
     <row r="41">
@@ -1244,10 +1724,22 @@
         <v>-0.008344971932180645</v>
       </c>
       <c r="E41" t="n">
+        <v>-0.006666691358189425</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.008915363657952202</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.007905179507113669</v>
+      </c>
+      <c r="H41" t="n">
         <v>-0.002296212260350483</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.008707150599317259</v>
       </c>
     </row>
     <row r="42">
@@ -1264,10 +1756,22 @@
         <v>0.002789402087578718</v>
       </c>
       <c r="E42" t="n">
+        <v>-0.01177473654453376</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.005899722127188589</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.004735604745834454</v>
+      </c>
+      <c r="H42" t="n">
         <v>0.004587164006906175</v>
       </c>
-      <c r="F42" t="n">
+      <c r="I42" t="n">
         <v>0.007692345623155905</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-0.004817630670924444</v>
       </c>
     </row>
     <row r="43">
@@ -1284,10 +1788,22 @@
         <v>-0.02825046628585159</v>
       </c>
       <c r="E43" t="n">
+        <v>0.01844142790272318</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.002945510229757087</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01569890954310393</v>
+      </c>
+      <c r="H43" t="n">
         <v>-0.03019973986363222</v>
       </c>
-      <c r="F43" t="n">
+      <c r="I43" t="n">
         <v>-0.00383877630716567</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.006731093611318073</v>
       </c>
     </row>
     <row r="44">
@@ -1304,10 +1820,22 @@
         <v>-0.008633147144702757</v>
       </c>
       <c r="E44" t="n">
+        <v>0.006622540760493401</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.01238405919972152</v>
+      </c>
+      <c r="H44" t="n">
         <v>-0.009478743954543845</v>
       </c>
-      <c r="F44" t="n">
+      <c r="I44" t="n">
         <v>-0.001924928409584581</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-0.01253640899104624</v>
       </c>
     </row>
     <row r="45">
@@ -1324,10 +1852,22 @@
         <v>0.01149437942573472</v>
       </c>
       <c r="E45" t="n">
+        <v>0.04200940807754261</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0146415499929482</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.02431730765070617</v>
+      </c>
+      <c r="H45" t="n">
         <v>-0.009569451016150587</v>
       </c>
-      <c r="F45" t="n">
+      <c r="I45" t="n">
         <v>0.03966525639243157</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.01072933695997591</v>
       </c>
     </row>
     <row r="46">
@@ -1344,10 +1884,22 @@
         <v>-0.01149437942573472</v>
       </c>
       <c r="E46" t="n">
+        <v>-0.0207841214622615</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.02950066439669774</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.01665443490513718</v>
+      </c>
+      <c r="H46" t="n">
         <v>-0.02679819315472454</v>
       </c>
-      <c r="F46" t="n">
+      <c r="I46" t="n">
         <v>-0.0281708769666964</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-0.01538262798990608</v>
       </c>
     </row>
     <row r="47">
@@ -1364,10 +1916,22 @@
         <v>-0.002894358026364507</v>
       </c>
       <c r="E47" t="n">
+        <v>-0.006483004878077736</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.002989538848365836</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.006088298867255482</v>
+      </c>
+      <c r="H47" t="n">
         <v>-0.01242251999855704</v>
       </c>
-      <c r="F47" t="n">
+      <c r="I47" t="n">
         <v>0.02446029757016044</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.004956070686709779</v>
       </c>
     </row>
     <row r="48">
@@ -1384,10 +1948,22 @@
         <v>0.01152750517106726</v>
       </c>
       <c r="E48" t="n">
+        <v>0.009708814126960341</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.01481508578514079</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.009063506153347056</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.02347235618514221</v>
       </c>
-      <c r="F48" t="n">
+      <c r="I48" t="n">
         <v>0.03470667976549979</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.01495614229585129</v>
       </c>
     </row>
     <row r="49">
@@ -1404,10 +1980,22 @@
         <v>-0.02759797520367613</v>
       </c>
       <c r="E49" t="n">
+        <v>-0.01787212476612154</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.02682724223314414</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.03208831455150074</v>
+      </c>
+      <c r="H49" t="n">
         <v>-0.01228516679457758</v>
       </c>
-      <c r="F49" t="n">
+      <c r="I49" t="n">
         <v>0.001793722454026536</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.002942807478754972</v>
       </c>
     </row>
     <row r="50">
@@ -1424,10 +2012,22 @@
         <v>-0.01036278703554672</v>
       </c>
       <c r="E50" t="n">
+        <v>0.01302950029033401</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.01499278458614128</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.00927363678532922</v>
+      </c>
+      <c r="H50" t="n">
         <v>-0.001236858537396301</v>
       </c>
-      <c r="F50" t="n">
+      <c r="I50" t="n">
         <v>-0.001793722454026536</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.0098505374378135</v>
       </c>
     </row>
     <row r="51">
@@ -1444,10 +2044,22 @@
         <v>0.06062462181643458</v>
       </c>
       <c r="E51" t="n">
+        <v>0.01923136192788721</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.01477131732031234</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.02130978658675131</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.01960847138837618</v>
       </c>
-      <c r="F51" t="n">
+      <c r="I51" t="n">
         <v>0.05416170797134257</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.002365480837877243</v>
       </c>
     </row>
     <row r="52">
@@ -1464,10 +2076,22 @@
         <v>-0.008438868645864517</v>
       </c>
       <c r="E52" t="n">
+        <v>-0.01761454670098228</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.01166193974784324</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.001504891179420209</v>
+      </c>
+      <c r="H52" t="n">
         <v>0.01684757057261121</v>
       </c>
-      <c r="F52" t="n">
+      <c r="I52" t="n">
         <v>-0.04167269640056759</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.01133436190308856</v>
       </c>
     </row>
     <row r="53">
@@ -1484,10 +2108,22 @@
         <v>-0.0085106896679088</v>
       </c>
       <c r="E53" t="n">
+        <v>-0.03117561746844988</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.005813969865420265</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.01515180502060254</v>
+      </c>
+      <c r="H53" t="n">
         <v>-0.01684757057261121</v>
       </c>
-      <c r="F53" t="n">
+      <c r="I53" t="n">
         <v>-0.01069528911674844</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-0.01216002424332352</v>
       </c>
     </row>
     <row r="54">
@@ -1504,10 +2140,22 @@
         <v>0.009922122506316633</v>
       </c>
       <c r="E54" t="n">
+        <v>0.04561051125205218</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.01468455168292104</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.02264247674975994</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.002424243611506061</v>
       </c>
-      <c r="F54" t="n">
+      <c r="I54" t="n">
         <v>0.02827043393825601</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.01242209152907492</v>
       </c>
     </row>
     <row r="55">
@@ -1524,10 +2172,22 @@
         <v>-0.007077170374085284</v>
       </c>
       <c r="E55" t="n">
+        <v>-0.05734576747047271</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.03202602671940857</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.05522875794778592</v>
+      </c>
+      <c r="H55" t="n">
         <v>-0.04963798109177153</v>
       </c>
-      <c r="F55" t="n">
+      <c r="I55" t="n">
         <v>-0.01934976817987621</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-0.02447339349975941</v>
       </c>
     </row>
     <row r="56">
@@ -1544,10 +2204,22 @@
         <v>0.03489537585061608</v>
       </c>
       <c r="E56" t="n">
+        <v>0.03805256453579453</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.1033527708273549</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05820938608592385</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.05567300242624196</v>
       </c>
-      <c r="F56" t="n">
+      <c r="I56" t="n">
         <v>0.0535996912229546</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.02089604174486404</v>
       </c>
     </row>
     <row r="57">
@@ -1564,10 +2236,22 @@
         <v>0.005471969877993033</v>
       </c>
       <c r="E57" t="n">
+        <v>0.03352269203864289</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.007722046093909807</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02643325706815558</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.03080812374233144</v>
       </c>
-      <c r="F57" t="n">
+      <c r="I57" t="n">
         <v>-0.02040887163120697</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.001893286883667855</v>
       </c>
     </row>
     <row r="58">
@@ -1584,10 +2268,22 @@
         <v>0.0269195259132422</v>
       </c>
       <c r="E58" t="n">
+        <v>0.02173998663640653</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.04266644631890326</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0313863138206707</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.06220207147655188</v>
       </c>
-      <c r="F58" t="n">
+      <c r="I58" t="n">
         <v>0.01195573592014831</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.04448981270230234</v>
       </c>
     </row>
     <row r="59">
@@ -1604,10 +2300,22 @@
         <v>-0.001328903850053909</v>
       </c>
       <c r="E59" t="n">
+        <v>-0.00153727931888703</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.01236109682357389</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.01117330059812494</v>
+      </c>
+      <c r="H59" t="n">
         <v>-0.01324522675002093</v>
       </c>
-      <c r="F59" t="n">
+      <c r="I59" t="n">
         <v>-0.008525200823359391</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.01375449172421739</v>
       </c>
     </row>
     <row r="60">
@@ -1624,10 +2332,22 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
+        <v>-0.004626068388781768</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.01251580793183082</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.03390155167568132</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.008849615276982803</v>
       </c>
-      <c r="F60" t="n">
+      <c r="I60" t="n">
         <v>-0.006872879287762146</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.00654452408607753</v>
       </c>
     </row>
     <row r="61">
@@ -1644,10 +2364,22 @@
         <v>0.001328903850053909</v>
       </c>
       <c r="E61" t="n">
+        <v>-0.01400801115611117</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.005050515786068743</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-0.008658062743114314</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.01962985604488576</v>
       </c>
-      <c r="F61" t="n">
+      <c r="I61" t="n">
         <v>0.006872879287762146</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-0.01643037989721563</v>
       </c>
     </row>
     <row r="62">
@@ -1664,10 +2396,22 @@
         <v>-0.01336918308213431</v>
       </c>
       <c r="E62" t="n">
+        <v>-0.004713284452098065</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.005076153031860375</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-0.03090753746307673</v>
+      </c>
+      <c r="H62" t="n">
         <v>-0.01085786997204918</v>
       </c>
-      <c r="F62" t="n">
+      <c r="I62" t="n">
         <v>-0.02426462199963098</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-0.02054170528380261</v>
       </c>
     </row>
     <row r="63">
@@ -1684,10 +2428,22 @@
         <v>0.01602170453126517</v>
       </c>
       <c r="E63" t="n">
+        <v>-0.03200273108617324</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.02267670867102956</v>
+      </c>
+      <c r="H63" t="n">
         <v>-0.01984629637193036</v>
       </c>
-      <c r="F63" t="n">
+      <c r="I63" t="n">
         <v>-0.04852704089466053</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.009287230187309703</v>
       </c>
     </row>
     <row r="64">
@@ -1704,10 +2460,22 @@
         <v>0.003965636393347349</v>
       </c>
       <c r="E64" t="n">
+        <v>-0.02636066969106921</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.007662872745569427</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.02476906811240909</v>
+      </c>
+      <c r="H64" t="n">
         <v>0.0121750258752793</v>
       </c>
-      <c r="F64" t="n">
+      <c r="I64" t="n">
         <v>-0.009250759772151174</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.008136893512475041</v>
       </c>
     </row>
     <row r="65">
@@ -1724,10 +2492,22 @@
         <v>-0.04451173078769699</v>
       </c>
       <c r="E65" t="n">
+        <v>0.00665559861173648</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.04725288485054513</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.01739174271186927</v>
+      </c>
+      <c r="H65" t="n">
         <v>-0.05077232537342313</v>
       </c>
-      <c r="F65" t="n">
+      <c r="I65" t="n">
         <v>-0.02065801162042202</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.005051060115098593</v>
       </c>
     </row>
     <row r="66">
@@ -1744,10 +2524,22 @@
         <v>0.04054609439434964</v>
       </c>
       <c r="E66" t="n">
+        <v>0.05642108661760403</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.07506757303342226</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.08261576551659155</v>
+      </c>
+      <c r="H66" t="n">
         <v>0.06713930283762837</v>
       </c>
-      <c r="F66" t="n">
+      <c r="I66" t="n">
         <v>0.05894892461373669</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.02642036145023674</v>
       </c>
     </row>
     <row r="67">
@@ -1764,10 +2556,22 @@
         <v>-0.001325381241068513</v>
       </c>
       <c r="E67" t="n">
+        <v>-0.03509131981126945</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.01730574709759258</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.02751802889389232</v>
+      </c>
+      <c r="H67" t="n">
         <v>-0.008695706967554173</v>
       </c>
-      <c r="F67" t="n">
+      <c r="I67" t="n">
         <v>-0.007181359408664711</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.003506642660877191</v>
       </c>
     </row>
     <row r="68">
@@ -1784,10 +2588,22 @@
         <v>0.03390155167568132</v>
       </c>
       <c r="E68" t="n">
+        <v>0.08998314737878665</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0478560211776351</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.09140646632385163</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.07566633307373793</v>
       </c>
-      <c r="F68" t="n">
+      <c r="I68" t="n">
         <v>0.03191760296830548</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.02439058742873712</v>
       </c>
     </row>
     <row r="69">
@@ -1804,10 +2620,22 @@
         <v>0.01020417017424169</v>
       </c>
       <c r="E69" t="n">
+        <v>-0.01344307025645275</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.03670136685042813</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.003903713480473581</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.01207258123426902</v>
       </c>
-      <c r="F69" t="n">
+      <c r="I69" t="n">
         <v>0.0121423868257251</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.01170663944740902</v>
       </c>
     </row>
     <row r="70">
@@ -1824,10 +2652,22 @@
         <v>0.01135658893233593</v>
       </c>
       <c r="E70" t="n">
+        <v>0.03545423035780448</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.02227263560912318</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.02056627758147656</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.00399202126953746</v>
       </c>
-      <c r="F70" t="n">
+      <c r="I70" t="n">
         <v>0.01709443335930061</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.009745402225034283</v>
       </c>
     </row>
     <row r="71">
@@ -1844,10 +2684,22 @@
         <v>0.01246898947973385</v>
       </c>
       <c r="E71" t="n">
+        <v>-0.005822432751433126</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-0.09467424973519867</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.01188132788675267</v>
       </c>
-      <c r="F71" t="n">
+      <c r="I71" t="n">
         <v>-0.03273332724375511</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.008613346217282825</v>
       </c>
     </row>
     <row r="72">
@@ -1864,10 +2716,22 @@
         <v>0.001238390251146804</v>
       </c>
       <c r="E72" t="n">
+        <v>-0.007326040092072716</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.01107431029909378</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.008356594590941402</v>
+      </c>
+      <c r="H72" t="n">
         <v>-0.01188132788675267</v>
       </c>
-      <c r="F72" t="n">
+      <c r="I72" t="n">
         <v>-0.06886778549016581</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-0.008532930830170926</v>
       </c>
     </row>
     <row r="73">
@@ -1884,10 +2748,22 @@
         <v>-0.003719781102532238</v>
       </c>
       <c r="E73" t="n">
+        <v>0.07777770104268367</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.006659292089977065</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.08504458049745933</v>
+      </c>
+      <c r="H73" t="n">
         <v>0.0158106060266423</v>
       </c>
-      <c r="F73" t="n">
+      <c r="I73" t="n">
         <v>0.01674457727380174</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.009388962919754107</v>
       </c>
     </row>
     <row r="74">
@@ -1904,10 +2780,22 @@
         <v>0.01111808858397723</v>
       </c>
       <c r="E74" t="n">
+        <v>-0.01232048438804068</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.02011240978709594</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-0.0284256864979513</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.01169603976319156</v>
       </c>
-      <c r="F74" t="n">
+      <c r="I74" t="n">
         <v>0.007352974305258719</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.00740840422007949</v>
       </c>
     </row>
     <row r="75">
@@ -1924,10 +2812,22 @@
         <v>-0.01859942023626582</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>-0.01108044577657186</v>
       </c>
       <c r="F75" t="n">
+        <v>-0.004524894598289197</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-0.04558429927579866</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>-0.01104983618658473</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-0.0007999086634917774</v>
       </c>
     </row>
     <row r="76">
@@ -1944,10 +2844,22 @@
         <v>0.01120111275482083</v>
       </c>
       <c r="E76" t="n">
+        <v>-0.009797139244983377</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.01351371916672273</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-0.02922963831493863</v>
+      </c>
+      <c r="H76" t="n">
         <v>0.01156082240107592</v>
       </c>
-      <c r="F76" t="n">
+      <c r="I76" t="n">
         <v>-0.003710579396535962</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.01597856463242309</v>
       </c>
     </row>
     <row r="77">
@@ -1964,10 +2876,22 @@
         <v>-0.002478316014467463</v>
       </c>
       <c r="E77" t="n">
+        <v>-0.00140745976787926</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.002234637801416195</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.007037326720576331</v>
+      </c>
+      <c r="H77" t="n">
         <v>0.001913876182284113</v>
       </c>
-      <c r="F77" t="n">
+      <c r="I77" t="n">
         <v>-0.005591813265777734</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-0.005856892949449133</v>
       </c>
     </row>
     <row r="78">
@@ -1984,10 +2908,22 @@
         <v>-0.003729028559866343</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>-0.04611768209496603</v>
       </c>
       <c r="F78" t="n">
+        <v>-0.02257432203853904</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-0.01840108537089158</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>-0.04004348144084124</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-0.01524381484869153</v>
       </c>
     </row>
     <row r="79">
@@ -2004,10 +2940,22 @@
         <v>-0.01001259929243004</v>
       </c>
       <c r="E79" t="n">
+        <v>0.02620237239402456</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.0324854551444882</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.004276556767260242</v>
+      </c>
+      <c r="H79" t="n">
         <v>-0.01541456340118685</v>
       </c>
-      <c r="F79" t="n">
+      <c r="I79" t="n">
         <v>-0.001947420284395651</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-0.01195938715695632</v>
       </c>
     </row>
     <row r="80">
@@ -2024,10 +2972,22 @@
         <v>0.008766493212182702</v>
       </c>
       <c r="E80" t="n">
+        <v>0.01426557715882204</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.01637463487179014</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03631684019799364</v>
+      </c>
+      <c r="H80" t="n">
         <v>0.01350068721890274</v>
       </c>
-      <c r="F80" t="n">
+      <c r="I80" t="n">
         <v>0.007767029337659714</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01836938948114053</v>
       </c>
     </row>
     <row r="81">
@@ -2044,10 +3004,22 @@
         <v>0.008690309191977441</v>
       </c>
       <c r="E81" t="n">
+        <v>0.002828856200477681</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.006984894521951279</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.01091416018067815</v>
+      </c>
+      <c r="H81" t="n">
         <v>0.03019097227914536</v>
       </c>
-      <c r="F81" t="n">
+      <c r="I81" t="n">
         <v>0.02105340919783227</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-0.001097541549182068</v>
       </c>
     </row>
     <row r="82">
@@ -2064,10 +3036,22 @@
         <v>-0.00495663963992854</v>
       </c>
       <c r="E82" t="n">
+        <v>0.004228336109521003</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.02765153133051035</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.004062294008878808</v>
+      </c>
+      <c r="H82" t="n">
         <v>0.02387624899113039</v>
       </c>
-      <c r="F82" t="n">
+      <c r="I82" t="n">
         <v>0.01876227645552264</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.0008140685671644832</v>
       </c>
     </row>
     <row r="83">
@@ -2084,10 +3068,22 @@
         <v>0.01111808858397723</v>
       </c>
       <c r="E83" t="n">
+        <v>0.07711730334443168</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.03132247112904096</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0306078450862417</v>
+      </c>
+      <c r="H83" t="n">
         <v>0.0162019745762807</v>
       </c>
-      <c r="F83" t="n">
+      <c r="I83" t="n">
         <v>0.03110955358464995</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.008741052232055679</v>
       </c>
     </row>
     <row r="84">
@@ -2104,10 +3100,22 @@
         <v>0.00734397425575839</v>
       </c>
       <c r="E84" t="n">
+        <v>0.02697658769820244</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.00439561147303813</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.01431384230527</v>
+      </c>
+      <c r="H84" t="n">
         <v>0.02294893298554435</v>
       </c>
-      <c r="F84" t="n">
+      <c r="I84" t="n">
         <v>-0.05556985115481039</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.0196398629095107</v>
       </c>
     </row>
     <row r="85">
@@ -2124,10 +3132,22 @@
         <v>-0.002442003655552138</v>
       </c>
       <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.02441852734814587</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
         <v>-0.001746725334942134</v>
       </c>
-      <c r="F85" t="n">
+      <c r="I85" t="n">
         <v>0.007590169266675328</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-0.009438631730908753</v>
       </c>
     </row>
     <row r="86">
@@ -2144,10 +3164,22 @@
         <v>0.002442003655552138</v>
       </c>
       <c r="E86" t="n">
+        <v>0.008832864998508327</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.002249719734015443</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-0.009085072222470902</v>
+      </c>
+      <c r="H86" t="n">
         <v>-0.02120220765060221</v>
       </c>
-      <c r="F86" t="n">
+      <c r="I86" t="n">
         <v>0.003773589383639919</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-0.001836691634281351</v>
       </c>
     </row>
     <row r="87">
@@ -2164,10 +3196,22 @@
         <v>0.02171376022378402</v>
       </c>
       <c r="E87" t="n">
+        <v>0.04663421651436384</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0310446216819602</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04337414570110321</v>
+      </c>
+      <c r="H87" t="n">
         <v>0.02120220765060221</v>
       </c>
-      <c r="F87" t="n">
+      <c r="I87" t="n">
         <v>0.01495354966705786</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.02332529619202539</v>
       </c>
     </row>
     <row r="88">
@@ -2184,10 +3228,22 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.09378296231538341</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-0.002500001302084609</v>
+      </c>
+      <c r="H88" t="n">
         <v>0.001746725334942134</v>
       </c>
-      <c r="F88" t="n">
+      <c r="I88" t="n">
         <v>-0.01307208156735262</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-0.005144624857850388</v>
       </c>
     </row>
     <row r="89">
@@ -2204,10 +3260,22 @@
         <v>-0.007185659660874144</v>
       </c>
       <c r="E89" t="n">
+        <v>-0.0157102929063182</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.01206287244927529</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
         <v>-0.01229163851155679</v>
       </c>
-      <c r="F89" t="n">
+      <c r="I89" t="n">
         <v>0.005623257554362215</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-0.008645797404387423</v>
       </c>
     </row>
     <row r="90">
@@ -2224,10 +3292,22 @@
         <v>-0.009661910911737071</v>
       </c>
       <c r="E90" t="n">
+        <v>0.01090259133821547</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.01923136192788766</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-0.001252348316465923</v>
+      </c>
+      <c r="H90" t="n">
         <v>-0.04148475826924747</v>
       </c>
-      <c r="F90" t="n">
+      <c r="I90" t="n">
         <v>-0.03229150463652353</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.001770259317909861</v>
       </c>
     </row>
     <row r="91">
@@ -2244,10 +3324,22 @@
         <v>0.007255170881171669</v>
       </c>
       <c r="E91" t="n">
+        <v>0.007202912294057562</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0165293019512105</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.005000010416705614</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.007339482488045501</v>
       </c>
-      <c r="F91" t="n">
+      <c r="I91" t="n">
         <v>0.003853569315990235</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.00983824239561315</v>
       </c>
     </row>
     <row r="92">
@@ -2264,10 +3356,22 @@
         <v>0.006006024060212223</v>
       </c>
       <c r="E92" t="n">
+        <v>0.03294415571935438</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.002339182353172209</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.009925639799969854</v>
+      </c>
+      <c r="H92" t="n">
         <v>0.02170067073311799</v>
       </c>
-      <c r="F92" t="n">
+      <c r="I92" t="n">
         <v>0.013371736965889</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.01067671309057516</v>
       </c>
     </row>
     <row r="93">
@@ -2284,10 +3388,22 @@
         <v>-0.01569132979467547</v>
       </c>
       <c r="E93" t="n">
+        <v>0.001156738127823687</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.01392133851860811</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.02318590746881055</v>
+      </c>
+      <c r="H93" t="n">
         <v>-0.02353049741019397</v>
       </c>
-      <c r="F93" t="n">
+      <c r="I93" t="n">
         <v>0.01319529041883261</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-0.0007803791532303705</v>
       </c>
     </row>
     <row r="94">
@@ -2304,10 +3420,22 @@
         <v>0.004854378464797637</v>
       </c>
       <c r="E94" t="n">
+        <v>-0.001156738127823687</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.004597709248629567</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-0.03062088595632817</v>
+      </c>
+      <c r="H94" t="n">
         <v>-0.005509655810969516</v>
       </c>
-      <c r="F94" t="n">
+      <c r="I94" t="n">
         <v>0.005602255548669888</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.004451406002642599</v>
       </c>
     </row>
     <row r="95">
@@ -2324,10 +3452,22 @@
         <v>-0.01095567866097502</v>
       </c>
       <c r="E95" t="n">
+        <v>-0.004640379556502872</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.004576667027411663</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-0.002490661312452236</v>
+      </c>
+      <c r="H95" t="n">
         <v>-0.005540180375615211</v>
       </c>
-      <c r="F95" t="n">
+      <c r="I95" t="n">
         <v>-0.003731347612858205</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-0.00290617124429815</v>
       </c>
     </row>
     <row r="96">
@@ -2344,10 +3484,22 @@
         <v>-0.004907985312192054</v>
       </c>
       <c r="E96" t="n">
+        <v>0.01729149711006173</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.01362250168129631</v>
+      </c>
+      <c r="H96" t="n">
         <v>0.003696861881326008</v>
       </c>
-      <c r="F96" t="n">
+      <c r="I96" t="n">
         <v>0.01851904776723767</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-0.0002088338001851042</v>
       </c>
     </row>
     <row r="97">
@@ -2364,10 +3516,22 @@
         <v>0.006131227054936073</v>
       </c>
       <c r="E97" t="n">
+        <v>0.04031901090234324</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.00682596507040012</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-0.001230769386132646</v>
+      </c>
+      <c r="H97" t="n">
         <v>-0.02616971773338461</v>
       </c>
-      <c r="F97" t="n">
+      <c r="I97" t="n">
         <v>-0.003676474729308765</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-0.008361845250846045</v>
       </c>
     </row>
     <row r="98">
@@ -2384,10 +3548,22 @@
         <v>0.006093864074323108</v>
       </c>
       <c r="E98" t="n">
+        <v>-0.00109829774906256</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.004545462371674969</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-0.01114562621491633</v>
+      </c>
+      <c r="H98" t="n">
         <v>-0.01142869582362271</v>
       </c>
-      <c r="F98" t="n">
+      <c r="I98" t="n">
         <v>-0.03561763561289322</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-0.005977682902321035</v>
       </c>
     </row>
     <row r="99">
@@ -2404,10 +3580,22 @@
         <v>0.006056953708189816</v>
       </c>
       <c r="E99" t="n">
+        <v>0.00109829774906256</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.006857169726136814</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.001244555232204902</v>
+      </c>
+      <c r="H99" t="n">
         <v>-0.01544432242747362</v>
       </c>
-      <c r="F99" t="n">
+      <c r="I99" t="n">
         <v>-0.0508916072963892</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-0.01717738864220664</v>
       </c>
     </row>
     <row r="100">
@@ -2424,10 +3612,22 @@
         <v>-0.01337405952525694</v>
       </c>
       <c r="E100" t="n">
+        <v>0.02386230358738572</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.002290951746555692</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-0.01251580793183082</v>
+      </c>
+      <c r="H100" t="n">
         <v>0.003883500026397702</v>
       </c>
-      <c r="F100" t="n">
+      <c r="I100" t="n">
         <v>0.006006024060211779</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.007420013836002326</v>
       </c>
     </row>
     <row r="101">
@@ -2444,10 +3644,22 @@
         <v>0.009744291474678146</v>
       </c>
       <c r="E101" t="n">
+        <v>-0.02386230358738572</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.006888660995185258</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.002522069432710161</v>
+      </c>
+      <c r="H101" t="n">
         <v>-0.005830920310793353</v>
       </c>
-      <c r="F101" t="n">
+      <c r="I101" t="n">
         <v>-0.006006024060211779</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-0.001986652772131947</v>
       </c>
     </row>
     <row r="102">
@@ -2464,10 +3676,22 @@
         <v>0.02039662790764574</v>
       </c>
       <c r="E102" t="n">
+        <v>-0.006607953560031632</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.002301496988279084</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.001261829820422111</v>
+      </c>
+      <c r="H102" t="n">
         <v>0.005830920310793353</v>
       </c>
-      <c r="F102" t="n">
+      <c r="I102" t="n">
         <v>-0.001004520426005406</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.001040043079530761</v>
       </c>
     </row>
     <row r="103">
@@ -2484,10 +3708,22 @@
         <v>0.02463467684110121</v>
       </c>
       <c r="E103" t="n">
+        <v>-0.03371105734231161</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.03271319740630263</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-0.02296019228150081</v>
+      </c>
+      <c r="H103" t="n">
         <v>-0.0335006697300444</v>
       </c>
-      <c r="F103" t="n">
+      <c r="I103" t="n">
         <v>-0.06433753631124928</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-0.02245284352966692</v>
       </c>
     </row>
     <row r="104">
@@ -2504,10 +3740,22 @@
         <v>-0.02820398461622142</v>
       </c>
       <c r="E104" t="n">
+        <v>-0.005730674708985362</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.003863494825044445</v>
+      </c>
+      <c r="H104" t="n">
         <v>-0.005022612266291304</v>
       </c>
-      <c r="F104" t="n">
+      <c r="I104" t="n">
         <v>0.02435271220405744</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.005076128924558887</v>
       </c>
     </row>
     <row r="105">
@@ -2524,10 +3772,22 @@
         <v>-0.01078500567656304</v>
       </c>
       <c r="E105" t="n">
+        <v>0.005730674708985362</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.02347525642136672</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.02412815461182349</v>
+      </c>
+      <c r="H105" t="n">
         <v>0.009022617599637517</v>
       </c>
-      <c r="F105" t="n">
+      <c r="I105" t="n">
         <v>0.01556855523992384</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-0.002018002835606936</v>
       </c>
     </row>
     <row r="106">
@@ -2544,10 +3804,22 @@
         <v>-0.01456336418789661</v>
       </c>
       <c r="E106" t="n">
+        <v>0.02817087696669596</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0386851423112371</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.02233343445064762</v>
+      </c>
+      <c r="H106" t="n">
         <v>0.02756079957887136</v>
       </c>
-      <c r="F106" t="n">
+      <c r="I106" t="n">
         <v>0.007183201743492518</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.01577352027548962</v>
       </c>
     </row>
     <row r="107">
@@ -2564,10 +3836,22 @@
         <v>-0.00859428248733396</v>
       </c>
       <c r="E107" t="n">
+        <v>-0.004454350349380576</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.008888947417246218</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.001226241723244481</v>
+      </c>
+      <c r="H107" t="n">
         <v>0.005808341595746835</v>
       </c>
-      <c r="F107" t="n">
+      <c r="I107" t="n">
         <v>-0.02904768544023106</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.001226078942831776</v>
       </c>
     </row>
     <row r="108">
@@ -2584,10 +3868,22 @@
         <v>-0.002469137056920978</v>
       </c>
       <c r="E108" t="n">
+        <v>-0.03521090604305055</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.004415018209116717</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-0.004914014802428923</v>
+      </c>
+      <c r="H108" t="n">
         <v>-0.01360565205577835</v>
       </c>
-      <c r="F108" t="n">
+      <c r="I108" t="n">
         <v>0.001052077950804087</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-0.007237426784836742</v>
       </c>
     </row>
     <row r="109">
@@ -2604,10 +3900,22 @@
         <v>0.004932192489318865</v>
       </c>
       <c r="E109" t="n">
+        <v>0.01946254907491163</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.01746769304039075</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.01709443335929972</v>
+      </c>
+      <c r="H109" t="n">
         <v>0.01745922137176859</v>
       </c>
-      <c r="F109" t="n">
-        <v>0</v>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.001991716489069262</v>
       </c>
     </row>
     <row r="110">
@@ -2624,10 +3932,22 @@
         <v>-0.00864736704118263</v>
       </c>
       <c r="E110" t="n">
+        <v>-0.01715307922624909</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.01967276559870479</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-0.008510689667908355</v>
+      </c>
+      <c r="H110" t="n">
         <v>-0.005785937067043889</v>
       </c>
-      <c r="F110" t="n">
+      <c r="I110" t="n">
         <v>-0.003159560290368457</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-0.007723973483527047</v>
       </c>
     </row>
     <row r="111">
@@ -2644,10 +3964,22 @@
         <v>0.002478316014467463</v>
       </c>
       <c r="E111" t="n">
+        <v>0.002304148484849833</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.006600684031352166</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.01334161693757396</v>
+      </c>
+      <c r="H111" t="n">
         <v>0.02483413203773832</v>
       </c>
-      <c r="F111" t="n">
+      <c r="I111" t="n">
         <v>0.008403410796379074</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.008711316285532789</v>
       </c>
     </row>
     <row r="112">
@@ -2664,10 +3996,22 @@
         <v>-0.003719781102532238</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>0.02948059300946326</v>
       </c>
       <c r="F112" t="n">
+        <v>0.01739174271186927</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.01554125721121213</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0.01865339059113413</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.000871989291573172</v>
       </c>
     </row>
     <row r="113">
@@ -2684,10 +4028,22 @@
         <v>-0.001243008239596666</v>
       </c>
       <c r="E113" t="n">
+        <v>-0.01349851767089483</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.004301081899390269</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-0.03132786314185276</v>
+      </c>
+      <c r="H113" t="n">
         <v>0.01683856436282927</v>
       </c>
-      <c r="F113" t="n">
+      <c r="I113" t="n">
         <v>0.003075348400247702</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-0.0007802708323652041</v>
       </c>
     </row>
     <row r="114">
@@ -2704,10 +4060,22 @@
         <v>-0.01756632371789957</v>
       </c>
       <c r="E114" t="n">
+        <v>-0.01944029204152553</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.002148228538289221</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-0.02102736719207554</v>
+      </c>
+      <c r="H114" t="n">
         <v>-0.02061928720273531</v>
       </c>
-      <c r="F114" t="n">
+      <c r="I114" t="n">
         <v>-0.005130847582343723</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-0.01378341064516952</v>
       </c>
     </row>
     <row r="115">
@@ -2724,10 +4092,22 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
+        <v>0.01376168507268183</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.01494157999819912</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.008711940602021517</v>
+      </c>
+      <c r="H115" t="n">
         <v>-0.005698021114637797</v>
       </c>
-      <c r="F115" t="n">
+      <c r="I115" t="n">
         <v>0.01632689328742876</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-0.002660116495926346</v>
       </c>
     </row>
     <row r="116">
@@ -2744,10 +4124,22 @@
         <v>-0.02694197595542303</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>-0.02537621749337493</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>-0.01709443335930017</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-0.03659714409155734</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.001737964897586153</v>
       </c>
     </row>
     <row r="117">
@@ -2764,10 +4156,22 @@
         <v>-0.009144413818997776</v>
       </c>
       <c r="E117" t="n">
+        <v>0.004662013105811269</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.02399242674322144</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-0.03532087241425685</v>
+      </c>
+      <c r="H117" t="n">
         <v>-0.01149437942573517</v>
       </c>
-      <c r="F117" t="n">
+      <c r="I117" t="n">
         <v>-0.01324522675002093</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-0.01154905208642631</v>
       </c>
     </row>
     <row r="118">
@@ -2784,10 +4188,22 @@
         <v>-0.001313197824960533</v>
       </c>
       <c r="E118" t="n">
+        <v>0.01729149711006173</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.02183492860320024</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.01191278151624209</v>
+      </c>
+      <c r="H118" t="n">
         <v>0.01149437942573517</v>
       </c>
-      <c r="F118" t="n">
+      <c r="I118" t="n">
         <v>-0.005141399500418586</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-0.007733969256385365</v>
       </c>
     </row>
     <row r="119">
@@ -2804,10 +4220,22 @@
         <v>-0.01990775765792518</v>
       </c>
       <c r="E119" t="n">
+        <v>-0.0420131798904082</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-0.01859283307661608</v>
+      </c>
+      <c r="H119" t="n">
         <v>-0.01535538808319448</v>
       </c>
-      <c r="F119" t="n">
+      <c r="I119" t="n">
         <v>-0.01244829352656796</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-0.007915711354755217</v>
       </c>
     </row>
     <row r="120">
@@ -2824,10 +4252,22 @@
         <v>0.004013383313458796</v>
       </c>
       <c r="E120" t="n">
+        <v>-0.02168759701477807</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-0.03965277191999395</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0598357916106651</v>
+      </c>
+      <c r="H120" t="n">
         <v>-0.03343477608623768</v>
       </c>
-      <c r="F120" t="n">
+      <c r="I120" t="n">
         <v>-0.02858850069379359</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-0.02645997205816464</v>
       </c>
     </row>
     <row r="121">
@@ -2844,10 +4284,22 @@
         <v>0.01982880564930101</v>
       </c>
       <c r="E121" t="n">
+        <v>0.07166894655436273</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.04396312342111619</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.05764931465278078</v>
+      </c>
+      <c r="H121" t="n">
         <v>0.04114194333117549</v>
       </c>
-      <c r="F121" t="n">
+      <c r="I121" t="n">
         <v>0.04103679422036155</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.02756584231798875</v>
       </c>
     </row>
     <row r="122">
@@ -2864,10 +4316,22 @@
         <v>-0.002621233479874086</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>-0.01946254907491163</v>
       </c>
       <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-0.004778981616350819</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0.02544666566116449</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.008609651635426374</v>
       </c>
     </row>
     <row r="123">
@@ -2884,10 +4348,22 @@
         <v>0.001311475597810752</v>
       </c>
       <c r="E123" t="n">
+        <v>-0.03889706611067112</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-0.01954459607297032</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-0.02547135884831508</v>
+      </c>
+      <c r="H123" t="n">
         <v>0.003831422311555865</v>
       </c>
-      <c r="F123" t="n">
+      <c r="I123" t="n">
         <v>-0.004028202828604943</v>
+      </c>
+      <c r="J123" t="n">
+        <v>-0.008906755917028164</v>
       </c>
     </row>
     <row r="124">
@@ -2904,10 +4380,22 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
+        <v>-0.03547772687444706</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-0.01993421490081726</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-0.01111808858397723</v>
+      </c>
+      <c r="H124" t="n">
         <v>-0.01541456340118685</v>
       </c>
-      <c r="F124" t="n">
+      <c r="I124" t="n">
         <v>-0.01525194791689533</v>
+      </c>
+      <c r="J124" t="n">
+        <v>-0.02477089612768246</v>
       </c>
     </row>
     <row r="125">
@@ -2924,10 +4412,22 @@
         <v>0.04485056616535177</v>
       </c>
       <c r="E125" t="n">
+        <v>0.02216839550566707</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.04377066305532828</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.03778633566613809</v>
+      </c>
+      <c r="H125" t="n">
         <v>0.03435452350210833</v>
       </c>
-      <c r="F125" t="n">
+      <c r="I125" t="n">
         <v>0.03819559773803594</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.02567239788977105</v>
       </c>
     </row>
     <row r="126">
@@ -2944,10 +4444,22 @@
         <v>-0.02795607726659011</v>
       </c>
       <c r="E126" t="n">
+        <v>-0.04866836890711745</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0.03930636992664294</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-0.04276766601634208</v>
+      </c>
+      <c r="H126" t="n">
         <v>-0.03629815871067921</v>
       </c>
-      <c r="F126" t="n">
+      <c r="I126" t="n">
         <v>-0.03104906400396201</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-0.009251539578372103</v>
       </c>
     </row>
     <row r="127">
@@ -2964,10 +4476,22 @@
         <v>0.001287830184428795</v>
       </c>
       <c r="E127" t="n">
+        <v>-0.005128216366919069</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-0.02024816082994718</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-0.0012492194004321</v>
+      </c>
+      <c r="H127" t="n">
         <v>-0.04577913766064468</v>
       </c>
-      <c r="F127" t="n">
+      <c r="I127" t="n">
         <v>-0.03099421649296463</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.00882494398591227</v>
       </c>
     </row>
     <row r="128">
@@ -2984,10 +4508,22 @@
         <v>0.03166825749886693</v>
       </c>
       <c r="E128" t="n">
+        <v>0.05622967649867761</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.06595796779179741</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.04879016416943216</v>
+      </c>
+      <c r="H128" t="n">
         <v>0.05738468378095263</v>
       </c>
-      <c r="F128" t="n">
+      <c r="I128" t="n">
         <v>0.03404145094843347</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.03309658888798594</v>
       </c>
     </row>
     <row r="129">
@@ -3004,10 +4540,22 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
+        <v>0.038145268259691</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.00424629088145112</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.02701279924606848</v>
+      </c>
+      <c r="H129" t="n">
         <v>0.05426962993405704</v>
       </c>
-      <c r="F129" t="n">
+      <c r="I129" t="n">
         <v>0.01809094564903901</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.02756789558764972</v>
       </c>
     </row>
     <row r="130">
@@ -3024,10 +4572,22 @@
         <v>0.01239173229516366</v>
       </c>
       <c r="E130" t="n">
+        <v>0.07000600331970475</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0.01709443335930017</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.02517295392450158</v>
+      </c>
+      <c r="H130" t="n">
         <v>0.01983834221966507</v>
       </c>
-      <c r="F130" t="n">
+      <c r="I130" t="n">
         <v>-0.01202419296680146</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.01302428283021229</v>
       </c>
     </row>
     <row r="131">
@@ -3044,10 +4604,22 @@
         <v>0.01830435486201321</v>
       </c>
       <c r="E131" t="n">
+        <v>-0.063012967828735</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.004301081899390269</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-0.009080652635746311</v>
+      </c>
+      <c r="H131" t="n">
         <v>0.02294893298554435</v>
       </c>
-      <c r="F131" t="n">
+      <c r="I131" t="n">
         <v>-0.01421343725005553</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.006976292923251748</v>
       </c>
     </row>
     <row r="132">
@@ -3064,10 +4636,22 @@
         <v>-0.03069608715717687</v>
       </c>
       <c r="E132" t="n">
+        <v>0.1325146157194359</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-0.0416270395120768</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-0.05267455155097434</v>
+      </c>
+      <c r="H132" t="n">
         <v>-0.02832047678745564</v>
       </c>
-      <c r="F132" t="n">
+      <c r="I132" t="n">
         <v>-0.04069419082655434</v>
+      </c>
+      <c r="J132" t="n">
+        <v>-0.0158628578365434</v>
       </c>
     </row>
     <row r="133">
@@ -3084,10 +4668,22 @@
         <v>-0.02525386732120349</v>
       </c>
       <c r="E133" t="n">
+        <v>-0.02159466948145994</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.008988824568433529</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-0.00723766730023101</v>
+      </c>
+      <c r="H133" t="n">
         <v>-0.01446679841775378</v>
       </c>
-      <c r="F133" t="n">
+      <c r="I133" t="n">
         <v>-0.02807959861329445</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-0.008325572963270744</v>
       </c>
     </row>
     <row r="134">
@@ -3104,10 +4700,22 @@
         <v>0.005102051883895342</v>
       </c>
       <c r="E134" t="n">
+        <v>0.0486911591695991</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.05916292465896911</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-0.001211387186296875</v>
+      </c>
+      <c r="H134" t="n">
         <v>0.02695580998852876</v>
       </c>
-      <c r="F134" t="n">
+      <c r="I134" t="n">
         <v>-0.009906520202791924</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.01122465812528084</v>
       </c>
     </row>
     <row r="135">
@@ -3124,10 +4732,22 @@
         <v>0.02264247674976039</v>
       </c>
       <c r="E135" t="n">
+        <v>0.08080403241529588</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.02105340919783227</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.09806121317621486</v>
+      </c>
+      <c r="H135" t="n">
         <v>0.05182506786458596</v>
       </c>
-      <c r="F135" t="n">
+      <c r="I135" t="n">
         <v>0.02727937842166206</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.0245143708520672</v>
       </c>
     </row>
     <row r="136">
@@ -3144,10 +4764,22 @@
         <v>-0.02902411933928084</v>
       </c>
       <c r="E136" t="n">
+        <v>0.01810004164361789</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.07571182173569646</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-0.009939341902557963</v>
+      </c>
+      <c r="H136" t="n">
         <v>-0.08060403241462932</v>
       </c>
-      <c r="F136" t="n">
+      <c r="I136" t="n">
         <v>-0.03505287675504265</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-0.02322315875992231</v>
       </c>
     </row>
     <row r="137">
@@ -3164,10 +4796,22 @@
         <v>0.02403657782824142</v>
       </c>
       <c r="E137" t="n">
+        <v>0.06929178047139217</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.04825497550265689</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.08710386253882874</v>
+      </c>
+      <c r="H137" t="n">
         <v>0.09564190977916986</v>
       </c>
-      <c r="F137" t="n">
+      <c r="I137" t="n">
         <v>0.03289770350705901</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.01765219895509418</v>
       </c>
     </row>
     <row r="138">
@@ -3184,10 +4828,22 @@
         <v>0.01242251999855704</v>
       </c>
       <c r="E138" t="n">
+        <v>-0.02114243657380932</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.04807613343577533</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.004060919286315023</v>
+      </c>
+      <c r="H138" t="n">
         <v>0.05485245884497747</v>
       </c>
-      <c r="F138" t="n">
+      <c r="I138" t="n">
         <v>0.0453425059315733</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.01253833547853489</v>
       </c>
     </row>
     <row r="139">
@@ -3204,10 +4860,22 @@
         <v>0.01227009259181466</v>
       </c>
       <c r="E139" t="n">
+        <v>0.04184710993550045</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.02220070998019219</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.02303557040182369</v>
+      </c>
+      <c r="H139" t="n">
         <v>0.05942342047080107</v>
       </c>
-      <c r="F139" t="n">
+      <c r="I139" t="n">
         <v>0.0294587071511252</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.01009121613056507</v>
       </c>
     </row>
     <row r="140">
@@ -3224,10 +4892,22 @@
         <v>-0.01227009259181466</v>
       </c>
       <c r="E140" t="n">
+        <v>0.0122201113347753</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.009930568202600742</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.01960847138837618</v>
+      </c>
+      <c r="H140" t="n">
         <v>0.005899722127188589</v>
       </c>
-      <c r="F140" t="n">
+      <c r="I140" t="n">
         <v>0.001000500333583343</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.003003127079564294</v>
       </c>
     </row>
     <row r="141">
@@ -3244,10 +4924,22 @@
         <v>0.01104983618658517</v>
       </c>
       <c r="E141" t="n">
+        <v>-0.02459140313732266</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.007874056430905885</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-0.003891055492966533</v>
+      </c>
+      <c r="H141" t="n">
         <v>0.0102414940521971</v>
       </c>
-      <c r="F141" t="n">
+      <c r="I141" t="n">
         <v>-0.003004509020298585</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.001470187867848693</v>
       </c>
     </row>
     <row r="142">
@@ -3264,10 +4956,22 @@
         <v>0.02412662261413701</v>
       </c>
       <c r="E142" t="n">
+        <v>0.04463215402076859</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.01749315744751723</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.03260116137539804</v>
+      </c>
+      <c r="H142" t="n">
         <v>0.03714712819194599</v>
       </c>
-      <c r="F142" t="n">
+      <c r="I142" t="n">
         <v>0.01295483987346691</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.0239253245347939</v>
       </c>
     </row>
     <row r="143">
@@ -3284,10 +4988,22 @@
         <v>0.01537582036210949</v>
       </c>
       <c r="E143" t="n">
+        <v>0.003960401216096976</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.02661754099995584</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.01683856436282927</v>
+      </c>
+      <c r="H143" t="n">
         <v>0.009769791595805266</v>
       </c>
-      <c r="F143" t="n">
+      <c r="I143" t="n">
         <v>0.005923018303121808</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.009746926306005932</v>
       </c>
     </row>
     <row r="144">
@@ -3304,10 +5020,22 @@
         <v>0.001173020662363022</v>
       </c>
       <c r="E144" t="n">
+        <v>0.02729214228800725</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.005612736904957671</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.01838287060053334</v>
+      </c>
+      <c r="H144" t="n">
         <v>-0.01822054611352808</v>
       </c>
-      <c r="F144" t="n">
+      <c r="I144" t="n">
         <v>-0.001970443987298509</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.00295387824661475</v>
       </c>
     </row>
     <row r="145">
@@ -3324,10 +5052,22 @@
         <v>-0.002347418918304811</v>
       </c>
       <c r="E145" t="n">
+        <v>-0.023347363996991</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.0018198367169866</v>
+      </c>
+      <c r="H145" t="n">
         <v>-0.01281156313420073</v>
       </c>
-      <c r="F145" t="n">
+      <c r="I145" t="n">
         <v>-0.003952574315823298</v>
+      </c>
+      <c r="J145" t="n">
+        <v>-0.00950060772325223</v>
       </c>
     </row>
     <row r="146">
@@ -3344,10 +5084,22 @@
         <v>-0.005892768967151074</v>
       </c>
       <c r="E146" t="n">
+        <v>-0.003944778291016249</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.009285117775679641</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.007246408520766856</v>
+      </c>
+      <c r="H146" t="n">
         <v>-0.002869442427952507</v>
       </c>
-      <c r="F146" t="n">
+      <c r="I146" t="n">
         <v>0.001978240012105559</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.005620984616331981</v>
       </c>
     </row>
     <row r="147">
@@ -3364,10 +5116,22 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.01285600810153387</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-0.007246408520766856</v>
+      </c>
+      <c r="H147" t="n">
         <v>0.001435750426104221</v>
       </c>
-      <c r="F147" t="n">
+      <c r="I147" t="n">
         <v>0.009832920916239107</v>
+      </c>
+      <c r="J147" t="n">
+        <v>-0.003220290292667016</v>
       </c>
     </row>
     <row r="148">
@@ -3384,10 +5148,22 @@
         <v>0.0011813350458314</v>
       </c>
       <c r="E148" t="n">
+        <v>-0.003960401216096976</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-0.01655971603901829</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-0.005469475804535939</v>
+      </c>
+      <c r="H148" t="n">
         <v>0.01141239205174482</v>
       </c>
-      <c r="F148" t="n">
+      <c r="I148" t="n">
         <v>0.02321187386121837</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.007374612312116113</v>
       </c>
     </row>
     <row r="149">
@@ -3404,10 +5180,22 @@
         <v>0.01173722394572518</v>
       </c>
       <c r="E149" t="n">
+        <v>-0.01197619104671599</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.005550430530648853</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-0.01102952357549958</v>
+      </c>
+      <c r="H149" t="n">
         <v>0.00565772371985851</v>
       </c>
-      <c r="F149" t="n">
+      <c r="I149" t="n">
         <v>0.01329554248124465</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.007925290400583762</v>
       </c>
     </row>
     <row r="150">
@@ -3424,10 +5212,22 @@
         <v>-0.005851391768463721</v>
       </c>
       <c r="E150" t="n">
+        <v>0.01988137055382921</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-0.01113184036884407</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-0.003703707937484424</v>
+      </c>
+      <c r="H150" t="n">
         <v>0.004222384879848384</v>
       </c>
-      <c r="F150" t="n">
-        <v>0</v>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>-0.01179902964898361</v>
       </c>
     </row>
     <row r="151">
@@ -3444,10 +5244,22 @@
         <v>-0.01418463499195655</v>
       </c>
       <c r="E151" t="n">
+        <v>0.007843177461025697</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-0.02646657318816326</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-0.005581409838194773</v>
+      </c>
+      <c r="H151" t="n">
         <v>-0.02129250065145172</v>
       </c>
-      <c r="F151" t="n">
+      <c r="I151" t="n">
         <v>-0.009478743954543845</v>
+      </c>
+      <c r="J151" t="n">
+        <v>-0.02095168504247802</v>
       </c>
     </row>
     <row r="152">
@@ -3464,10 +5276,22 @@
         <v>0.002378122404967264</v>
       </c>
       <c r="E152" t="n">
+        <v>-0.01972450534777792</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-0.007692345623155905</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-0.009372139828863091</v>
+      </c>
+      <c r="H152" t="n">
         <v>0.001433692001848286</v>
       </c>
-      <c r="F152" t="n">
+      <c r="I152" t="n">
         <v>-0.001906578270581605</v>
+      </c>
+      <c r="J152" t="n">
+        <v>-0.01845186762142781</v>
       </c>
     </row>
     <row r="153">
@@ -3484,10 +5308,22 @@
         <v>0.00118694375952888</v>
       </c>
       <c r="E153" t="n">
+        <v>0.01188132788675222</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.01912104144677862</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-0.01327033692089685</v>
+      </c>
+      <c r="H153" t="n">
         <v>0.01563642376975505</v>
       </c>
-      <c r="F153" t="n">
+      <c r="I153" t="n">
         <v>0.00570886422032002</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.00843085405079691</v>
       </c>
     </row>
     <row r="154">
@@ -3504,10 +5340,22 @@
         <v>-0.004756251534649092</v>
       </c>
       <c r="E154" t="n">
+        <v>-0.01587334915628968</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-0.03272669350255697</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
         <v>-0.01277519148872219</v>
       </c>
-      <c r="F154" t="n">
+      <c r="I154" t="n">
         <v>-0.01722530628187924</v>
+      </c>
+      <c r="J154" t="n">
+        <v>-0.00875654145765381</v>
       </c>
     </row>
     <row r="155">
@@ -3524,10 +5372,22 @@
         <v>0.007125920889967219</v>
       </c>
       <c r="E155" t="n">
+        <v>0.01587334915628968</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.0116732843047247</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-0.009587801155153564</v>
+      </c>
+      <c r="H155" t="n">
         <v>0.01559209475983536</v>
       </c>
-      <c r="F155" t="n">
+      <c r="I155" t="n">
         <v>0.01532597047822692</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.01200386517855812</v>
       </c>
     </row>
     <row r="156">
@@ -3544,10 +5404,22 @@
         <v>-0.01070801427247225</v>
       </c>
       <c r="E156" t="n">
+        <v>-0.07774875287437766</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-0.02944275481669978</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-0.03131371306614961</v>
+      </c>
+      <c r="H156" t="n">
         <v>-0.0285326060355704</v>
       </c>
-      <c r="F156" t="n">
+      <c r="I156" t="n">
         <v>-0.01339732957182127</v>
+      </c>
+      <c r="J156" t="n">
+        <v>-0.0007157615828941033</v>
       </c>
     </row>
     <row r="157">
@@ -3564,10 +5436,22 @@
         <v>-0.004796172263492604</v>
       </c>
       <c r="E157" t="n">
+        <v>-0.02150620522096336</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-0.01001009359510086</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.001986097971629519</v>
+      </c>
+      <c r="H157" t="n">
         <v>-0.001448226176364642</v>
       </c>
-      <c r="F157" t="n">
+      <c r="I157" t="n">
         <v>-0.01749315744751723</v>
+      </c>
+      <c r="J157" t="n">
+        <v>-0.007743196893047255</v>
       </c>
     </row>
     <row r="158">
@@ -3584,10 +5468,22 @@
         <v>0.01075921915173916</v>
       </c>
       <c r="E158" t="n">
+        <v>0.02150620522096336</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.01992097749455457</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.005934735519814716</v>
+      </c>
+      <c r="H158" t="n">
         <v>0.008658062743114314</v>
       </c>
-      <c r="F158" t="n">
+      <c r="I158" t="n">
         <v>0.01363214879005792</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.01711453474689151</v>
       </c>
     </row>
     <row r="159">
@@ -3604,10 +5500,22 @@
         <v>-0.004767589483472445</v>
       </c>
       <c r="E159" t="n">
+        <v>-0.008547060578457888</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-0.01590490783966469</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-0.009910883899454159</v>
+      </c>
+      <c r="H159" t="n">
         <v>-0.01010838932076119</v>
       </c>
-      <c r="F159" t="n">
+      <c r="I159" t="n">
         <v>-0.007767029337659714</v>
+      </c>
+      <c r="J159" t="n">
+        <v>-0.0148842343593234</v>
       </c>
     </row>
     <row r="160">
@@ -3624,10 +5532,22 @@
         <v>0.01305656530242771</v>
       </c>
       <c r="E160" t="n">
+        <v>0.02123222010577397</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.01393057353594696</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.01776947051197553</v>
+      </c>
+      <c r="H160" t="n">
         <v>0.0129778317487137</v>
       </c>
-      <c r="F160" t="n">
+      <c r="I160" t="n">
         <v>0.01739174271186927</v>
+      </c>
+      <c r="J160" t="n">
+        <v>-0.009703700967339302</v>
       </c>
     </row>
     <row r="161">
@@ -3644,10 +5564,22 @@
         <v>-0.02992443511483334</v>
       </c>
       <c r="E161" t="n">
+        <v>0.03711766295650243</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.001955034835803282</v>
+      </c>
+      <c r="H161" t="n">
         <v>-0.007189103572469158</v>
       </c>
-      <c r="F161" t="n">
+      <c r="I161" t="n">
         <v>-0.01544432242747362</v>
+      </c>
+      <c r="J161" t="n">
+        <v>-0.004317200038137514</v>
       </c>
     </row>
     <row r="162">
@@ -3664,10 +5596,22 @@
         <v>-0.004872116824000461</v>
       </c>
       <c r="E162" t="n">
+        <v>-0.02045061047129071</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-0.03009254149294494</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-0.03781545099681782</v>
+      </c>
+      <c r="H162" t="n">
         <v>-0.01453513961911312</v>
       </c>
-      <c r="F162" t="n">
+      <c r="I162" t="n">
         <v>-0.04781787435049312</v>
+      </c>
+      <c r="J162" t="n">
+        <v>-0.01372774204937244</v>
       </c>
     </row>
     <row r="163">
@@ -3684,10 +5628,22 @@
         <v>0.02531780798428995</v>
       </c>
       <c r="E163" t="n">
+        <v>0.02449102000829573</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.09882187364512562</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.02602749524477543</v>
+      </c>
+      <c r="H163" t="n">
         <v>0.04997470947743388</v>
       </c>
-      <c r="F163" t="n">
+      <c r="I163" t="n">
         <v>0.06517607296025085</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.02463969716105474</v>
       </c>
     </row>
     <row r="164">
@@ -3704,10 +5660,22 @@
         <v>0.004750602758597733</v>
       </c>
       <c r="E164" t="n">
+        <v>0.02783479899344421</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.02729923848763782</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.01568659616769974</v>
+      </c>
+      <c r="H164" t="n">
         <v>0.01657496509421286</v>
       </c>
-      <c r="F164" t="n">
+      <c r="I164" t="n">
         <v>-0.04898138704027</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.0034582850019369</v>
       </c>
     </row>
     <row r="165">
@@ -3724,10 +5692,22 @@
         <v>0.01528542400182253</v>
       </c>
       <c r="E165" t="n">
+        <v>-0.0118344576470033</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.00179372245402698</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-0.005853675251460633</v>
+      </c>
+      <c r="H165" t="n">
         <v>0.03367321510658794</v>
       </c>
-      <c r="F165" t="n">
+      <c r="I165" t="n">
         <v>-0.02130978658675131</v>
+      </c>
+      <c r="J165" t="n">
+        <v>-0.0007959983752918731</v>
       </c>
     </row>
     <row r="166">
@@ -3744,10 +5724,22 @@
         <v>0.003494470649773707</v>
       </c>
       <c r="E166" t="n">
+        <v>0.03509131981127034</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.01600034134644135</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.04027389913793966</v>
+      </c>
+      <c r="H166" t="n">
         <v>-0.007978765731804671</v>
       </c>
-      <c r="F166" t="n">
+      <c r="I166" t="n">
         <v>0.04119115714058008</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.02213965227945991</v>
       </c>
     </row>
     <row r="167">
@@ -3764,10 +5756,22 @@
         <v>0.0161479864079821</v>
       </c>
       <c r="E167" t="n">
+        <v>-0.003838776307166114</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.01052641298698731</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.02597548640326064</v>
+      </c>
+      <c r="H167" t="n">
         <v>0.02374781785003588</v>
       </c>
-      <c r="F167" t="n">
+      <c r="I167" t="n">
         <v>0.02142243558740686</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.01739514722753022</v>
       </c>
     </row>
     <row r="168">
@@ -3787,7 +5791,19 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>0.00348432408261079</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.05175106505244553</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>-0.007834216958290341</v>
       </c>
     </row>
     <row r="169">
@@ -3804,10 +5820,22 @@
         <v>0</v>
       </c>
       <c r="E169" t="n">
+        <v>-0.02729214228800725</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-0.02464913527465384</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-0.09478857673242747</v>
+      </c>
+      <c r="H169" t="n">
         <v>0.001302931780416294</v>
       </c>
-      <c r="F169" t="n">
+      <c r="I169" t="n">
         <v>-0.01357925812638072</v>
+      </c>
+      <c r="J169" t="n">
+        <v>-0.004048428123496706</v>
       </c>
     </row>
     <row r="170">
@@ -3824,10 +5852,22 @@
         <v>0.009019226866849195</v>
       </c>
       <c r="E170" t="n">
+        <v>-0.003960401216096976</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-0.007155665595412586</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-0.001913876182284113</v>
+      </c>
+      <c r="H170" t="n">
         <v>0.009073296205674986</v>
       </c>
-      <c r="F170" t="n">
+      <c r="I170" t="n">
         <v>0.007782140442055052</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.005637788012514022</v>
       </c>
     </row>
     <row r="171">
@@ -3844,10 +5884,22 @@
         <v>0.01116083013752878</v>
       </c>
       <c r="E171" t="n">
+        <v>-0.04463215402076859</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-0.01628995297926839</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-0.03707741778289986</v>
+      </c>
+      <c r="H171" t="n">
         <v>0.006430890330290318</v>
       </c>
-      <c r="F171" t="n">
+      <c r="I171" t="n">
         <v>-0.003883500026397702</v>
+      </c>
+      <c r="J171" t="n">
+        <v>-0.01046915554935524</v>
       </c>
     </row>
     <row r="172">
@@ -3864,10 +5916,22 @@
         <v>0.004429686091588447</v>
       </c>
       <c r="E172" t="n">
+        <v>0.004140792666031956</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.01269282679841899</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.01185784645078369</v>
+      </c>
+      <c r="H172" t="n">
         <v>-0.02072613051711691</v>
       </c>
-      <c r="F172" t="n">
-        <v>0</v>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>-0.007091736312240471</v>
       </c>
     </row>
     <row r="173">
@@ -3884,10 +5948,22 @@
         <v>-0.01222916852641198</v>
       </c>
       <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.01608613775162437</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.007827828620246891</v>
+      </c>
+      <c r="H173" t="n">
         <v>0.01558473101669833</v>
       </c>
-      <c r="F173" t="n">
+      <c r="I173" t="n">
         <v>0.02687301825109634</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.02072664637761434</v>
       </c>
     </row>
     <row r="174">
@@ -3904,10 +5980,22 @@
         <v>0.01112358521866241</v>
       </c>
       <c r="E174" t="n">
+        <v>0.004123717183861508</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.03826553807895383</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.01162803799511902</v>
+      </c>
+      <c r="H174" t="n">
         <v>0.09694894875354176</v>
       </c>
-      <c r="F174" t="n">
+      <c r="I174" t="n">
         <v>-0.01912104144677862</v>
+      </c>
+      <c r="J174" t="n">
+        <v>-0.001436314960374219</v>
       </c>
     </row>
     <row r="175">
@@ -3924,10 +6012,22 @@
         <v>0.06943525149858942</v>
       </c>
       <c r="E175" t="n">
+        <v>0.0403280453869721</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.01859732381558921</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.05437140378212701</v>
+      </c>
+      <c r="H175" t="n">
         <v>0.02197890671877456</v>
       </c>
-      <c r="F175" t="n">
+      <c r="I175" t="n">
         <v>0.05630004468853267</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.02402719877951043</v>
       </c>
     </row>
     <row r="176">
@@ -3944,10 +6044,22 @@
         <v>-0.09520698595458654</v>
       </c>
       <c r="E176" t="n">
+        <v>-0.01192857086527344</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-0.003355707846972145</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-0.003656311203110718</v>
+      </c>
+      <c r="H176" t="n">
         <v>-0.09473826100120331</v>
       </c>
-      <c r="F176" t="n">
+      <c r="I176" t="n">
         <v>-0.009165967014080234</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.006023493721267315</v>
       </c>
     </row>
     <row r="177">
@@ -3964,10 +6076,22 @@
         <v>-0.00797725028064411</v>
       </c>
       <c r="E177" t="n">
+        <v>-0.01207258123426946</v>
+      </c>
+      <c r="F177" t="n">
+        <v>-0.0289875368732524</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-0.009199696898423593</v>
+      </c>
+      <c r="H177" t="n">
         <v>0.003766482795477089</v>
       </c>
-      <c r="F177" t="n">
+      <c r="I177" t="n">
         <v>0.003676474729308765</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.001221233270479516</v>
       </c>
     </row>
     <row r="178">
@@ -3984,10 +6108,22 @@
         <v>-0.0196424570577558</v>
       </c>
       <c r="E178" t="n">
+        <v>-0.004056800695614982</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-0.02243084698818221</v>
+      </c>
+      <c r="H178" t="n">
         <v>-0.02538207327141695</v>
       </c>
-      <c r="F178" t="n">
+      <c r="I178" t="n">
         <v>-0.005519793223597969</v>
+      </c>
+      <c r="J178" t="n">
+        <v>-0.0091078319776976</v>
       </c>
     </row>
     <row r="179">
@@ -4004,10 +6140,22 @@
         <v>0.01390520666761264</v>
       </c>
       <c r="E179" t="n">
+        <v>-0.01639380977567573</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-0.06246454873844209</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-0.02876516640313387</v>
+      </c>
+      <c r="H179" t="n">
         <v>0.03162818976836945</v>
       </c>
-      <c r="F179" t="n">
+      <c r="I179" t="n">
         <v>-0.01862251209800192</v>
+      </c>
+      <c r="J179" t="n">
+        <v>-0.005578277591054004</v>
       </c>
     </row>
     <row r="180">
@@ -4024,10 +6172,22 @@
         <v>-0.006928434181964427</v>
       </c>
       <c r="E180" t="n">
+        <v>0.02449102000829573</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.04852704089466053</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.03629815871067921</v>
+      </c>
+      <c r="H180" t="n">
         <v>-0.01505674617910735</v>
       </c>
-      <c r="F180" t="n">
+      <c r="I180" t="n">
         <v>0.02046583059229112</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.006212440396835106</v>
       </c>
     </row>
     <row r="181">
@@ -4044,10 +6204,22 @@
         <v>0.009227285769074722</v>
       </c>
       <c r="E181" t="n">
+        <v>-0.01626052087178032</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.01220590567950364</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-0.02661754099995584</v>
+      </c>
+      <c r="H181" t="n">
         <v>-0.007614249985245181</v>
       </c>
-      <c r="F181" t="n">
+      <c r="I181" t="n">
         <v>0.01462548921897922</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.01410074157809227</v>
       </c>
     </row>
     <row r="182">
@@ -4064,10 +6236,22 @@
         <v>-0.03030534949532893</v>
       </c>
       <c r="E182" t="n">
+        <v>0.02028467117150523</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-0.02278801501004057</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-0.00579711768432567</v>
+      </c>
+      <c r="H182" t="n">
         <v>-0.03105035992072303</v>
       </c>
-      <c r="F182" t="n">
+      <c r="I182" t="n">
         <v>-0.01646880771326842</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.003241934915163114</v>
       </c>
     </row>
     <row r="183">
@@ -4084,10 +6268,22 @@
         <v>-0.01190490250631804</v>
       </c>
       <c r="E183" t="n">
+        <v>-0.03681397312271617</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-0.03060544907607765</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-0.02750664578983386</v>
+      </c>
+      <c r="H183" t="n">
         <v>-0.005270104424236699</v>
       </c>
-      <c r="F183" t="n">
+      <c r="I183" t="n">
         <v>-0.003696861881326008</v>
+      </c>
+      <c r="J183" t="n">
+        <v>-0.01812337751060866</v>
       </c>
     </row>
     <row r="184">
@@ -4104,10 +6300,22 @@
         <v>0.008348289391471031</v>
       </c>
       <c r="E184" t="n">
+        <v>0.01242251999855704</v>
+      </c>
+      <c r="F184" t="n">
+        <v>-0.02218205552597485</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.009910883899454159</v>
+      </c>
+      <c r="H184" t="n">
         <v>0.02349977591589791</v>
       </c>
-      <c r="F184" t="n">
+      <c r="I184" t="n">
         <v>-0.001853568649323289</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.00337610281872891</v>
       </c>
     </row>
     <row r="185">
@@ -4124,10 +6332,22 @@
         <v>0.01649036189941544</v>
       </c>
       <c r="E185" t="n">
+        <v>0.02036730282443422</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.0129992545436397</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.001970443987298509</v>
+      </c>
+      <c r="H185" t="n">
         <v>-0.006472514505617255</v>
       </c>
-      <c r="F185" t="n">
+      <c r="I185" t="n">
         <v>0.04887850729418597</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.01375786236309828</v>
       </c>
     </row>
     <row r="186">
@@ -4144,10 +6364,22 @@
         <v>-0.001168907204982084</v>
       </c>
       <c r="E186" t="n">
+        <v>-0.04115807249350745</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-0.02050398019770716</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-0.02088589097983418</v>
+      </c>
+      <c r="H186" t="n">
         <v>0.01546422569758121</v>
       </c>
-      <c r="F186" t="n">
+      <c r="I186" t="n">
         <v>-0.0378082835399387</v>
+      </c>
+      <c r="J186" t="n">
+        <v>-0.00614629086136631</v>
       </c>
     </row>
     <row r="187">
@@ -4164,10 +6396,22 @@
         <v>0.01968795497221976</v>
       </c>
       <c r="E187" t="n">
+        <v>0.03711766295650243</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.04240266550534466</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.02872906844086032</v>
+      </c>
+      <c r="H187" t="n">
         <v>0.05231578936416081</v>
       </c>
-      <c r="F187" t="n">
+      <c r="I187" t="n">
         <v>0.01637889208403953</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.01981959990418858</v>
       </c>
     </row>
     <row r="188">
@@ -4184,10 +6428,22 @@
         <v>0.002290951746555692</v>
       </c>
       <c r="E188" t="n">
+        <v>0.0240011520995429</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-0.01821543989134122</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.009718249468921414</v>
+      </c>
+      <c r="H188" t="n">
         <v>-0.01343942036166101</v>
       </c>
-      <c r="F188" t="n">
+      <c r="I188" t="n">
         <v>0.03372102996745596</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.005866053923012871</v>
       </c>
     </row>
     <row r="189">
@@ -4204,10 +6460,22 @@
         <v>0.002285715280855971</v>
       </c>
       <c r="E189" t="n">
+        <v>-0.01593659226281297</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-0.02042782269009802</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-0.007767029337659714</v>
+      </c>
+      <c r="H189" t="n">
         <v>-0.03123301968993175</v>
       </c>
-      <c r="F189" t="n">
+      <c r="I189" t="n">
         <v>-0.001746725334942134</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.003843821640613143</v>
       </c>
     </row>
     <row r="190">
@@ -4224,10 +6492,22 @@
         <v>0.003418806748785475</v>
       </c>
       <c r="E190" t="n">
+        <v>-0.004024150299724916</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.01674457727380174</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.007767029337659714</v>
+      </c>
+      <c r="H190" t="n">
         <v>-0.01405773949023192</v>
       </c>
-      <c r="F190" t="n">
+      <c r="I190" t="n">
         <v>0.03267702602630074</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.002657898507280265</v>
       </c>
     </row>
     <row r="191">
@@ -4244,10 +6524,22 @@
         <v>-0.02185250843762354</v>
       </c>
       <c r="E191" t="n">
+        <v>-0.004040409537005019</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.007352974305259163</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-0.007767029337659714</v>
+      </c>
+      <c r="H191" t="n">
         <v>-0.04743972507155991</v>
       </c>
-      <c r="F191" t="n">
+      <c r="I191" t="n">
         <v>-0.02918662108653169</v>
+      </c>
+      <c r="J191" t="n">
+        <v>-0.01087594974278616</v>
       </c>
     </row>
     <row r="192">
@@ -4264,10 +6556,22 @@
         <v>0.04100802372737711</v>
       </c>
       <c r="E192" t="n">
+        <v>-0.008130126083250033</v>
+      </c>
+      <c r="F192" t="n">
+        <v>-0.00550965581096996</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-0.001951220131261699</v>
+      </c>
+      <c r="H192" t="n">
         <v>0.04098392472868895</v>
       </c>
-      <c r="F192" t="n">
+      <c r="I192" t="n">
         <v>0.01384105141187142</v>
+      </c>
+      <c r="J192" t="n">
+        <v>-0.001633937436125166</v>
       </c>
     </row>
     <row r="193">
@@ -4284,10 +6588,22 @@
         <v>-0.05860378561775681</v>
       </c>
       <c r="E193" t="n">
+        <v>-0.004089985251525263</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-0.02990877139257275</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-0.00981362144832465</v>
+      </c>
+      <c r="H193" t="n">
         <v>-0.09505114599896469</v>
       </c>
-      <c r="F193" t="n">
+      <c r="I193" t="n">
         <v>0.01703618715256816</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.008917874731155351</v>
       </c>
     </row>
     <row r="194">
@@ -4304,10 +6620,22 @@
         <v>0.009422920134505297</v>
       </c>
       <c r="E194" t="n">
+        <v>0.04800921918636014</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.01879754596750205</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.02339287957470537</v>
+      </c>
+      <c r="H194" t="n">
         <v>0.02253616502241229</v>
       </c>
-      <c r="F194" t="n">
+      <c r="I194" t="n">
         <v>0.01508829965120118</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.001249999809413538</v>
       </c>
     </row>
     <row r="195">
@@ -4324,10 +6652,22 @@
         <v>-0.007058852839624485</v>
       </c>
       <c r="E195" t="n">
+        <v>0.01934296284313142</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.02392018371765214</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.007677580899034364</v>
+      </c>
+      <c r="H195" t="n">
         <v>-0.01402547535450438</v>
       </c>
-      <c r="F195" t="n">
+      <c r="I195" t="n">
         <v>0.009933856524290796</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.001823856439589377</v>
       </c>
     </row>
     <row r="196">
@@ -4344,10 +6684,22 @@
         <v>-0.01068259416997153</v>
       </c>
       <c r="E196" t="n">
+        <v>-0.007692345623155461</v>
+      </c>
+      <c r="F196" t="n">
+        <v>-0.01834913866819665</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.001910220256119199</v>
+      </c>
+      <c r="H196" t="n">
         <v>-0.001413427797146483</v>
       </c>
-      <c r="F196" t="n">
+      <c r="I196" t="n">
         <v>-0.004954593124683271</v>
+      </c>
+      <c r="J196" t="n">
+        <v>-0.009728314000273741</v>
       </c>
     </row>
     <row r="197">
@@ -4364,10 +6716,22 @@
         <v>0.01068259416997153</v>
       </c>
       <c r="E197" t="n">
+        <v>0.01532597047822648</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.03815176596437642</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.009496747537256933</v>
+      </c>
+      <c r="H197" t="n">
         <v>0.01822054611352808</v>
       </c>
-      <c r="F197" t="n">
+      <c r="I197" t="n">
         <v>0.01152276123678053</v>
+      </c>
+      <c r="J197" t="n">
+        <v>3.701587155546804e-05</v>
       </c>
     </row>
     <row r="198">
@@ -4384,10 +6748,22 @@
         <v>0.001179941139848761</v>
       </c>
       <c r="E198" t="n">
+        <v>-0.01147240116223713</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.01941808585710136</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.001888574687868516</v>
+      </c>
+      <c r="H198" t="n">
         <v>-0.006968669316093745</v>
       </c>
-      <c r="F198" t="n">
+      <c r="I198" t="n">
         <v>0.004897968975546618</v>
+      </c>
+      <c r="J198" t="n">
+        <v>-0.005930871304515861</v>
       </c>
     </row>
     <row r="199">
@@ -4404,10 +6780,22 @@
         <v>-0.008288975818955269</v>
       </c>
       <c r="E199" t="n">
+        <v>0.02281467776617152</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.02076199144842894</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.02054227230031369</v>
+      </c>
+      <c r="H199" t="n">
         <v>-0.01408473988173853</v>
       </c>
-      <c r="F199" t="n">
+      <c r="I199" t="n">
         <v>0.0209516124857787</v>
+      </c>
+      <c r="J199" t="n">
+        <v>-0.0004755801164222362</v>
       </c>
     </row>
     <row r="200">
@@ -4424,10 +6812,22 @@
         <v>-0.02285126491676781</v>
       </c>
       <c r="E200" t="n">
+        <v>-0.04616204176316252</v>
+      </c>
+      <c r="F200" t="n">
+        <v>-0.05816617367531229</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-0.03383781478155834</v>
+      </c>
+      <c r="H200" t="n">
         <v>-0.03023988518971787</v>
       </c>
-      <c r="F200" t="n">
+      <c r="I200" t="n">
         <v>-0.04068909532409926</v>
+      </c>
+      <c r="J200" t="n">
+        <v>-0.02951095323312991</v>
       </c>
     </row>
     <row r="201">
@@ -4444,10 +6844,22 @@
         <v>-0.004878058453433365</v>
       </c>
       <c r="E201" t="n">
+        <v>0.023347363996991</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-0.04643359641520473</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.01140696779337613</v>
+      </c>
+      <c r="H201" t="n">
         <v>0.004376374599798893</v>
       </c>
-      <c r="F201" t="n">
+      <c r="I201" t="n">
         <v>0.01320151185853558</v>
+      </c>
+      <c r="J201" t="n">
+        <v>-0.000872238397823466</v>
       </c>
     </row>
     <row r="202">
@@ -4464,10 +6876,22 @@
         <v>0.01576745825270143</v>
       </c>
       <c r="E202" t="n">
+        <v>0.01904819497069443</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.007575793808457743</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.04977986239228294</v>
+      </c>
+      <c r="H202" t="n">
         <v>0.03714712819194599</v>
       </c>
-      <c r="F202" t="n">
+      <c r="I202" t="n">
         <v>0.03543043697950043</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.01971335384220474</v>
       </c>
     </row>
     <row r="203">
@@ -4484,10 +6908,22 @@
         <v>-0.006035021334470425</v>
       </c>
       <c r="E203" t="n">
+        <v>-0.05427688685443766</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.01683856436282971</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.00716848947861326</v>
+      </c>
+      <c r="H203" t="n">
         <v>-0.01270306425625289</v>
       </c>
-      <c r="F203" t="n">
+      <c r="I203" t="n">
         <v>0.00630916919326463</v>
+      </c>
+      <c r="J203" t="n">
+        <v>9.847143380703471e-05</v>
       </c>
     </row>
     <row r="204">
@@ -4504,10 +6940,22 @@
         <v>0.01083695132987783</v>
       </c>
       <c r="E204" t="n">
+        <v>-0.01202419296680191</v>
+      </c>
+      <c r="F204" t="n">
+        <v>-0.009319731948802534</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.02120220765060221</v>
+      </c>
+      <c r="H204" t="n">
         <v>0.009894073645197565</v>
       </c>
-      <c r="F204" t="n">
+      <c r="I204" t="n">
         <v>-0.004728141195945668</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.009710162830065983</v>
       </c>
     </row>
     <row r="205">
@@ -4524,10 +6972,22 @@
         <v>-0.009627029827164346</v>
       </c>
       <c r="E205" t="n">
+        <v>0.01202419296680191</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-0.04011999378942521</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-0.09531017980432432</v>
+      </c>
+      <c r="H205" t="n">
         <v>-0.02276058423844862</v>
       </c>
-      <c r="F205" t="n">
+      <c r="I205" t="n">
         <v>-0.02884815433765819</v>
+      </c>
+      <c r="J205" t="n">
+        <v>-0.02425996865897773</v>
       </c>
     </row>
     <row r="206">
@@ -4544,10 +7004,22 @@
         <v>-0.02200577796519942</v>
       </c>
       <c r="E206" t="n">
+        <v>-0.06162113410617387</v>
+      </c>
+      <c r="F206" t="n">
+        <v>-0.04587045406609702</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-0.0492710490067827</v>
+      </c>
+      <c r="H206" t="n">
         <v>-0.02771876952182772</v>
       </c>
-      <c r="F206" t="n">
+      <c r="I206" t="n">
         <v>-0.0280315138558862</v>
+      </c>
+      <c r="J206" t="n">
+        <v>-0.01123573126957567</v>
       </c>
     </row>
     <row r="207">
@@ -4564,10 +7036,22 @@
         <v>0.03163280779236377</v>
       </c>
       <c r="E207" t="n">
+        <v>0.06162113410617387</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.07847161544149506</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.04348511193973881</v>
+      </c>
+      <c r="H207" t="n">
         <v>0.05047935376027635</v>
       </c>
-      <c r="F207" t="n">
+      <c r="I207" t="n">
         <v>0.03612872408850532</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.02078892793222842</v>
       </c>
     </row>
     <row r="208">
@@ -4584,10 +7068,22 @@
         <v>0.03760725192968639</v>
       </c>
       <c r="E208" t="n">
+        <v>0.05804336964991474</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.06748229718158472</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.04722312693121689</v>
+      </c>
+      <c r="H208" t="n">
         <v>0.0547332219608947</v>
       </c>
-      <c r="F208" t="n">
+      <c r="I208" t="n">
         <v>0.04108002574346425</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.03195612858999475</v>
       </c>
     </row>
     <row r="209">
@@ -4604,10 +7100,22 @@
         <v>0.006896579059060048</v>
       </c>
       <c r="E209" t="n">
+        <v>-0.0620353909194522</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.001762114993399067</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-0.003696861881326008</v>
+      </c>
+      <c r="H209" t="n">
         <v>0.01059612563149503</v>
       </c>
-      <c r="F209" t="n">
+      <c r="I209" t="n">
         <v>-0.006211200092640645</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.01109486550106098</v>
       </c>
     </row>
     <row r="210">
@@ -4624,10 +7132,22 @@
         <v>-0.003442344190972779</v>
       </c>
       <c r="E210" t="n">
+        <v>-0.03666398437159213</v>
+      </c>
+      <c r="F210" t="n">
+        <v>-0.02495673197386772</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-0.01492565021667591</v>
+      </c>
+      <c r="H210" t="n">
         <v>-0.01192857086527432</v>
       </c>
-      <c r="F210" t="n">
+      <c r="I210" t="n">
         <v>-0.01728244114874755</v>
+      </c>
+      <c r="J210" t="n">
+        <v>-0.003731639434477074</v>
       </c>
     </row>
     <row r="211">
@@ -4644,10 +7164,22 @@
         <v>-0.001150086383236992</v>
       </c>
       <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.01255621877541291</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.01492565021667591</v>
+      </c>
+      <c r="H211" t="n">
         <v>0.01324522675002093</v>
       </c>
-      <c r="F211" t="n">
+      <c r="I211" t="n">
         <v>0.01572359437945625</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.001713925854019749</v>
       </c>
     </row>
     <row r="212">
@@ -4664,10 +7196,22 @@
         <v>-0.004613618333512814</v>
       </c>
       <c r="E212" t="n">
+        <v>-0.04237922296886154</v>
+      </c>
+      <c r="F212" t="n">
+        <v>-0.005361943141385606</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.02378886196401453</v>
+      </c>
+      <c r="H212" t="n">
         <v>-0.01058210933053694</v>
       </c>
-      <c r="F212" t="n">
+      <c r="I212" t="n">
         <v>-0.03330997888153231</v>
+      </c>
+      <c r="J212" t="n">
+        <v>-0.01384365420412692</v>
       </c>
     </row>
     <row r="213">
@@ -4684,10 +7228,22 @@
         <v>0.001155401630555719</v>
       </c>
       <c r="E213" t="n">
+        <v>-0.02631730831737311</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.001790510773788334</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-0.07119110085859859</v>
+      </c>
+      <c r="H213" t="n">
         <v>0.005305052229693352</v>
       </c>
-      <c r="F213" t="n">
+      <c r="I213" t="n">
         <v>-0.01790121032924041</v>
+      </c>
+      <c r="J213" t="n">
+        <v>-0.003270093501189564</v>
       </c>
     </row>
     <row r="214">
@@ -4704,10 +7260,22 @@
         <v>0.02621232695146958</v>
       </c>
       <c r="E214" t="n">
+        <v>0.03063696946188976</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.08073051291421507</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.03247658867790815</v>
+      </c>
+      <c r="H214" t="n">
         <v>0.01574835696813892</v>
       </c>
-      <c r="F214" t="n">
+      <c r="I214" t="n">
         <v>0.04652001563489261</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.02587389092644088</v>
       </c>
     </row>
     <row r="215">
@@ -4724,10 +7292,22 @@
         <v>-0.005640172876261396</v>
       </c>
       <c r="E215" t="n">
+        <v>-0.02178735418490696</v>
+      </c>
+      <c r="F215" t="n">
+        <v>-0.06299955194298335</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-0.01515180502060209</v>
+      </c>
+      <c r="H215" t="n">
         <v>-0.009156375285986229</v>
       </c>
-      <c r="F215" t="n">
+      <c r="I215" t="n">
         <v>-0.05974334880958221</v>
+      </c>
+      <c r="J215" t="n">
+        <v>-0.004798896205381098</v>
       </c>
     </row>
     <row r="216">
@@ -4744,10 +7324,22 @@
         <v>0.01793770068666722</v>
       </c>
       <c r="E216" t="n">
+        <v>0.05151353445010809</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.01914766941413415</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.02077506257496431</v>
+      </c>
+      <c r="H216" t="n">
         <v>0.02849933812911765</v>
       </c>
-      <c r="F216" t="n">
+      <c r="I216" t="n">
         <v>0.03434515820397177</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.01393747703381365</v>
       </c>
     </row>
     <row r="217">
@@ -4764,10 +7356,22 @@
         <v>-0.006688988150796327</v>
       </c>
       <c r="E217" t="n">
+        <v>-0.02542509836580997</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.08902085089676071</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-0.001870907935811683</v>
+      </c>
+      <c r="H217" t="n">
         <v>0.005095552426599426</v>
       </c>
-      <c r="F217" t="n">
+      <c r="I217" t="n">
         <v>-0.004834820054583133</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.000595822021564274</v>
       </c>
     </row>
     <row r="218">
@@ -4784,10 +7388,22 @@
         <v>-0.008988824568433529</v>
       </c>
       <c r="E218" t="n">
+        <v>-0.0393924017106615</v>
+      </c>
+      <c r="F218" t="n">
+        <v>-0.02232947639808858</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-0.02656702738472161</v>
+      </c>
+      <c r="H218" t="n">
         <v>-0.00893432873376554</v>
       </c>
-      <c r="F218" t="n">
+      <c r="I218" t="n">
         <v>0.003225809248882605</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.001984608162654666</v>
       </c>
     </row>
     <row r="219">
@@ -4804,10 +7420,22 @@
         <v>0.0011280317044986</v>
       </c>
       <c r="E219" t="n">
+        <v>0.004454350349380576</v>
+      </c>
+      <c r="F219" t="n">
+        <v>-0.06841700046614196</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.005752652489449783</v>
+      </c>
+      <c r="H219" t="n">
         <v>0.01147240116223713</v>
       </c>
-      <c r="F219" t="n">
+      <c r="I219" t="n">
         <v>0.02700720141131097</v>
+      </c>
+      <c r="J219" t="n">
+        <v>-0.002032875184605487</v>
       </c>
     </row>
     <row r="220">
@@ -4824,10 +7452,22 @@
         <v>-0.003387919671935968</v>
       </c>
       <c r="E220" t="n">
+        <v>-0.01342302033214082</v>
+      </c>
+      <c r="F220" t="n">
+        <v>-0.05320403606346469</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-0.01735819860975774</v>
+      </c>
+      <c r="H220" t="n">
         <v>-0.003809528416668151</v>
       </c>
-      <c r="F220" t="n">
+      <c r="I220" t="n">
         <v>0.001566171032744812</v>
+      </c>
+      <c r="J220" t="n">
+        <v>-0.01545827624809704</v>
       </c>
     </row>
     <row r="221">
@@ -4844,10 +7484,22 @@
         <v>0.005640172876261396</v>
       </c>
       <c r="E221" t="n">
+        <v>-0.004514680354525957</v>
+      </c>
+      <c r="F221" t="n">
+        <v>-0.02770260254933588</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-0.001947420284395651</v>
+      </c>
+      <c r="H221" t="n">
         <v>0.008866429205641957</v>
       </c>
-      <c r="F221" t="n">
+      <c r="I221" t="n">
         <v>0.01398624197473985</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.00255135956775554</v>
       </c>
     </row>
     <row r="222">
@@ -4864,10 +7516,22 @@
         <v>0.01894207052907459</v>
       </c>
       <c r="E222" t="n">
+        <v>0.0134833503372862</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.03857227478623981</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.01739174271186927</v>
+      </c>
+      <c r="H222" t="n">
         <v>0.05280539144985319</v>
       </c>
-      <c r="F222" t="n">
+      <c r="I222" t="n">
         <v>0.02288429383358803</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01725639036222937</v>
       </c>
     </row>
     <row r="223">
@@ -4884,10 +7548,22 @@
         <v>-0.00775627157135883</v>
       </c>
       <c r="E223" t="n">
+        <v>0.01769957709940151</v>
+      </c>
+      <c r="F223" t="n">
+        <v>-0.02925254283743728</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.003824096438403313</v>
+      </c>
+      <c r="H223" t="n">
         <v>-0.05406722127027574</v>
       </c>
-      <c r="F223" t="n">
-        <v>0</v>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.001479440767385043</v>
       </c>
     </row>
     <row r="224">
@@ -4904,10 +7580,22 @@
         <v>-0.001112966169420915</v>
       </c>
       <c r="E224" t="n">
+        <v>-0.01769957709940151</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.001853568649322845</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-0.005741642567675065</v>
+      </c>
+      <c r="H224" t="n">
         <v>-0.002528446353358582</v>
       </c>
-      <c r="F224" t="n">
+      <c r="I224" t="n">
         <v>0.01050272219914916</v>
+      </c>
+      <c r="J224" t="n">
+        <v>-0.01021061049610772</v>
       </c>
     </row>
     <row r="225">
@@ -4924,10 +7612,22 @@
         <v>-0.005583487425700806</v>
       </c>
       <c r="E225" t="n">
+        <v>0.004454350349380576</v>
+      </c>
+      <c r="F225" t="n">
+        <v>-0.03007745523727801</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-0.01547419658259752</v>
+      </c>
+      <c r="H225" t="n">
         <v>-0.01017820491575616</v>
       </c>
-      <c r="F225" t="n">
+      <c r="I225" t="n">
         <v>0.01775194545845071</v>
+      </c>
+      <c r="J225" t="n">
+        <v>-0.01025527339757737</v>
       </c>
     </row>
     <row r="226">
@@ -4944,10 +7644,22 @@
         <v>0.01445272516648055</v>
       </c>
       <c r="E226" t="n">
+        <v>-0.04082199452025481</v>
+      </c>
+      <c r="F226" t="n">
+        <v>-0.02316705928153429</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-0.01571741589540965</v>
+      </c>
+      <c r="H226" t="n">
         <v>0.01774444529907182</v>
       </c>
-      <c r="F226" t="n">
+      <c r="I226" t="n">
         <v>-0.0434525285670313</v>
+      </c>
+      <c r="J226" t="n">
+        <v>-0.003694779826192374</v>
       </c>
     </row>
     <row r="227">
@@ -4964,10 +7676,22 @@
         <v>-0.001104362343053111</v>
       </c>
       <c r="E227" t="n">
+        <v>-0.09105996551563056</v>
+      </c>
+      <c r="F227" t="n">
+        <v>-0.08985632912186103</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-0.04661431522475956</v>
+      </c>
+      <c r="H227" t="n">
         <v>0.04783253900647289</v>
       </c>
-      <c r="F227" t="n">
+      <c r="I227" t="n">
         <v>-0.001532567349777914</v>
+      </c>
+      <c r="J227" t="n">
+        <v>-0.01270020752812151</v>
       </c>
     </row>
     <row r="228">
@@ -4984,10 +7708,22 @@
         <v>0.007705046374405278</v>
       </c>
       <c r="E228" t="n">
+        <v>-0.03614229205724495</v>
+      </c>
+      <c r="F228" t="n">
+        <v>-0.02597548640326064</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-0.008333381559144648</v>
+      </c>
+      <c r="H228" t="n">
         <v>0.03414104395320017</v>
       </c>
-      <c r="F228" t="n">
+      <c r="I228" t="n">
         <v>-0.02641956303396142</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.001510649459365965</v>
       </c>
     </row>
     <row r="229">
@@ -5004,10 +7740,22 @@
         <v>0.04607135040639854</v>
       </c>
       <c r="E229" t="n">
+        <v>0.04924071610316361</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.03023988518971832</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.03089844155123433</v>
+      </c>
+      <c r="H229" t="n">
         <v>0.07361181734324607</v>
       </c>
-      <c r="F229" t="n">
+      <c r="I229" t="n">
         <v>0.04766467164769761</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.0161347691451077</v>
       </c>
     </row>
     <row r="230">
@@ -5024,10 +7772,22 @@
         <v>-0.02437852579513899</v>
       </c>
       <c r="E230" t="n">
+        <v>-0.009049835519918226</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.01896790270681059</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-0.002030457550382003</v>
+      </c>
+      <c r="H230" t="n">
         <v>-0.05185938554334157</v>
       </c>
-      <c r="F230" t="n">
+      <c r="I230" t="n">
         <v>-0.004514680354526845</v>
+      </c>
+      <c r="J230" t="n">
+        <v>-0.005001077622361905</v>
       </c>
     </row>
     <row r="231">
@@ -5044,10 +7804,22 @@
         <v>-0.01295914464250503</v>
       </c>
       <c r="E231" t="n">
+        <v>0.0492710490067827</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.04290750101127649</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.02607971278305188</v>
+      </c>
+      <c r="H231" t="n">
         <v>-0.03808885111959803</v>
       </c>
-      <c r="F231" t="n">
+      <c r="I231" t="n">
         <v>0.05001042057466165</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.01766387968258165</v>
       </c>
     </row>
     <row r="232">
@@ -5064,10 +7836,22 @@
         <v>0.02998083221193593</v>
       </c>
       <c r="E232" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>-0.02020270731751905</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.001978240012105559</v>
+      </c>
+      <c r="H232" t="n">
         <v>0.07149953111060636</v>
       </c>
-      <c r="F232" t="n">
+      <c r="I232" t="n">
         <v>-0.001435750426104221</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.0005037625903128173</v>
       </c>
     </row>
     <row r="233">
@@ -5084,10 +7868,22 @@
         <v>0.00630916919326463</v>
       </c>
       <c r="E233" t="n">
+        <v>0.02375408600810758</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.03804262544585013</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.03113091859517336</v>
+      </c>
+      <c r="H233" t="n">
         <v>0.002188184680552929</v>
       </c>
-      <c r="F233" t="n">
+      <c r="I233" t="n">
         <v>0.01709443335929972</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.00825987250903637</v>
       </c>
     </row>
     <row r="234">
@@ -5104,10 +7900,22 @@
         <v>0.03197796972380207</v>
       </c>
       <c r="E234" t="n">
+        <v>-0.009434032233358813</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.01945586661536591</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.009532960658723333</v>
+      </c>
+      <c r="H234" t="n">
         <v>0.05009038539018462</v>
       </c>
-      <c r="F234" t="n">
+      <c r="I234" t="n">
         <v>-0.01136375865031436</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.007955801868268608</v>
       </c>
     </row>
     <row r="235">
@@ -5124,10 +7932,22 @@
         <v>0.005063301956547139</v>
       </c>
       <c r="E235" t="n">
+        <v>0.0187798946515958</v>
+      </c>
+      <c r="F235" t="n">
+        <v>-0.015534292962184</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-0.009532960658723333</v>
+      </c>
+      <c r="H235" t="n">
         <v>-0.02207131108032634</v>
       </c>
-      <c r="F235" t="n">
+      <c r="I235" t="n">
         <v>-0.002861232281032855</v>
+      </c>
+      <c r="J235" t="n">
+        <v>-0.006613296085772546</v>
       </c>
     </row>
     <row r="236">
@@ -5144,10 +7964,22 @@
         <v>0.021978906718775</v>
       </c>
       <c r="E236" t="n">
+        <v>-0.02353049741019397</v>
+      </c>
+      <c r="F236" t="n">
+        <v>-0.01776947051197508</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.01520941866352876</v>
+      </c>
+      <c r="H236" t="n">
         <v>0.02622069462713839</v>
       </c>
-      <c r="F236" t="n">
+      <c r="I236" t="n">
         <v>0.02266385957721262</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.001824091866694744</v>
       </c>
     </row>
     <row r="237">
@@ -5164,10 +7996,22 @@
         <v>-0.01192857086527388</v>
       </c>
       <c r="E237" t="n">
+        <v>0.02817087696669685</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.005958309583630417</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" t="n">
         <v>-0.06965857660418084</v>
       </c>
-      <c r="F237" t="n">
+      <c r="I237" t="n">
         <v>-0.01410460618154197</v>
+      </c>
+      <c r="J237" t="n">
+        <v>-0.00334290479846544</v>
       </c>
     </row>
     <row r="238">
@@ -5184,10 +8028,22 @@
         <v>0.00399202126953746</v>
       </c>
       <c r="E238" t="n">
+        <v>0.03636764417087424</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.04074278346234994</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.02423231338776777</v>
+      </c>
+      <c r="H238" t="n">
         <v>-0.08328510247304255</v>
       </c>
-      <c r="F238" t="n">
+      <c r="I238" t="n">
         <v>0.04309214305479347</v>
+      </c>
+      <c r="J238" t="n">
+        <v>-0.00475622364329098</v>
       </c>
     </row>
     <row r="239">
@@ -5204,10 +8060,22 @@
         <v>0.1039651202355549</v>
       </c>
       <c r="E239" t="n">
+        <v>-0.004474280394920704</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.001899335803652757</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.01098912157559484</v>
+      </c>
+      <c r="H239" t="n">
         <v>0.1041535149077912</v>
       </c>
-      <c r="F239" t="n">
+      <c r="I239" t="n">
         <v>-0.07630819306332359</v>
+      </c>
+      <c r="J239" t="n">
+        <v>-0.002673597085758317</v>
       </c>
     </row>
     <row r="240">
@@ -5224,10 +8092,22 @@
         <v>-0.09405423633610077</v>
       </c>
       <c r="E240" t="n">
+        <v>0.01777824602128408</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.02436859101695754</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.005449604767565397</v>
+      </c>
+      <c r="H240" t="n">
         <v>-0.09454959955361097</v>
       </c>
-      <c r="F240" t="n">
+      <c r="I240" t="n">
         <v>-0.004415018209117605</v>
+      </c>
+      <c r="J240" t="n">
+        <v>-0.003824319105135032</v>
       </c>
     </row>
     <row r="241">
@@ -5244,10 +8124,22 @@
         <v>-0.09402894964827624</v>
       </c>
       <c r="E241" t="n">
+        <v>0.008771986072837024</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.01470614738969545</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.01617285924560097</v>
+      </c>
+      <c r="H241" t="n">
         <v>-0.09519071262778933</v>
       </c>
-      <c r="F241" t="n">
+      <c r="I241" t="n">
         <v>-0.0148591144037491</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.01084699099170905</v>
       </c>
     </row>
     <row r="242">
@@ -5264,10 +8156,22 @@
         <v>-0.01418463499195655</v>
       </c>
       <c r="E242" t="n">
+        <v>0.004357305368955622</v>
+      </c>
+      <c r="F242" t="n">
+        <v>-0.003656311203110274</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.01240051319845481</v>
+      </c>
+      <c r="H242" t="n">
         <v>-0.03748765597503478</v>
       </c>
-      <c r="F242" t="n">
+      <c r="I242" t="n">
         <v>-0.02731581064696353</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.007162905192805269</v>
       </c>
     </row>
     <row r="243">
@@ -5284,10 +8188,22 @@
         <v>0.01526747213078838</v>
       </c>
       <c r="E243" t="n">
+        <v>0.004338401598597663</v>
+      </c>
+      <c r="F243" t="n">
+        <v>-0.02409755157906091</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.01398624197473985</v>
+      </c>
+      <c r="H243" t="n">
         <v>0.0189194832461661</v>
       </c>
-      <c r="F243" t="n">
+      <c r="I243" t="n">
         <v>-0.01863407954489293</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.001425473101081209</v>
       </c>
     </row>
     <row r="244">
@@ -5304,10 +8220,22 @@
         <v>-0.02520681403334635</v>
       </c>
       <c r="E244" t="n">
+        <v>-0.008695706967553285</v>
+      </c>
+      <c r="F244" t="n">
+        <v>-0.01322021142813457</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-0.006968669316093745</v>
+      </c>
+      <c r="H244" t="n">
         <v>-0.04238501817217166</v>
       </c>
-      <c r="F244" t="n">
+      <c r="I244" t="n">
         <v>0.02170627858186336</v>
+      </c>
+      <c r="J244" t="n">
+        <v>-0.0139057584064286</v>
       </c>
     </row>
     <row r="245">
@@ -5324,10 +8252,22 @@
         <v>-0.002222223136717272</v>
       </c>
       <c r="E245" t="n">
+        <v>0.05521572260244678</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.04643359641520473</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.02076199144842938</v>
+      </c>
+      <c r="H245" t="n">
         <v>0.004181190760401243</v>
       </c>
-      <c r="F245" t="n">
+      <c r="I245" t="n">
         <v>0.03466812894587701</v>
+      </c>
+      <c r="J245" t="n">
+        <v>-0.002832061110172646</v>
       </c>
     </row>
     <row r="246">
@@ -5344,10 +8284,22 @@
         <v>0.004439518945364984</v>
       </c>
       <c r="E246" t="n">
+        <v>0.02851517030802064</v>
+      </c>
+      <c r="F246" t="n">
+        <v>-0.02946806225690812</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.01191503457787135</v>
+      </c>
+      <c r="H246" t="n">
         <v>0.006930034664669904</v>
       </c>
-      <c r="F246" t="n">
+      <c r="I246" t="n">
         <v>-0.005943553900848109</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.001614605507411326</v>
       </c>
     </row>
     <row r="247">
@@ -5364,10 +8316,22 @@
         <v>-0.006666691358189425</v>
       </c>
       <c r="E247" t="n">
+        <v>0.00400802139753953</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.005591813265777734</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-0.003389833754511962</v>
+      </c>
+      <c r="H247" t="n">
         <v>-0.004152255100767555</v>
       </c>
-      <c r="F247" t="n">
-        <v>0</v>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>-0.002824525016604795</v>
       </c>
     </row>
     <row r="248">
@@ -5384,10 +8348,22 @@
         <v>-0.003350086885281822</v>
       </c>
       <c r="E248" t="n">
+        <v>-0.0202027073175195</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.003710579396535962</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.003389833754511962</v>
+      </c>
+      <c r="H248" t="n">
         <v>0.00277008487381547</v>
       </c>
-      <c r="F248" t="n">
+      <c r="I248" t="n">
         <v>0.007423939071282248</v>
+      </c>
+      <c r="J248" t="n">
+        <v>-0.008159346702374393</v>
       </c>
     </row>
   </sheetData>
